--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A934C2-6011-4315-A2B4-ECF34CB5A524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD877487-E309-4B89-8728-BE3544699D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1425" windowWidth="21600" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>deutsch</t>
-  </si>
-  <si>
-    <t>espanol</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -66,57 +68,12 @@
     <t>Reconnaissance</t>
   </si>
   <si>
-    <t>Start flying reconnaissance, or hit Y or B to select track to fly</t>
-  </si>
-  <si>
     <t>FlyPrompt</t>
   </si>
   <si>
     <t>Start flying track!</t>
   </si>
   <si>
-    <t>(German) Press X or A to start</t>
-  </si>
-  <si>
-    <t>(German) Correct! You have earned {0} points - your session total is {0}</t>
-  </si>
-  <si>
-    <t>(German) Level failed! Press X or A to retry</t>
-  </si>
-  <si>
-    <t>(German) Fantastic!! You won!! Your session total was {0} points</t>
-  </si>
-  <si>
-    <t>(German) Pull trigger to select current track</t>
-  </si>
-  <si>
-    <t>(German) Start flying reconnaissance, or hit Y or B to select track to fly</t>
-  </si>
-  <si>
-    <t>(German) Start flying track!</t>
-  </si>
-  <si>
-    <t>(Spanish) Press X or A to start</t>
-  </si>
-  <si>
-    <t>(Spanish) Correct! You have earned {0} points - your session total is {0}</t>
-  </si>
-  <si>
-    <t>(Spanish) Level failed! Press X or A to retry</t>
-  </si>
-  <si>
-    <t>(Spanish) Fantastic!! You won!! Your session total was {0} points</t>
-  </si>
-  <si>
-    <t>(Spanish) Pull trigger to select current track</t>
-  </si>
-  <si>
-    <t>(Spanish) Start flying reconnaissance, or hit Y or B to select track to fly</t>
-  </si>
-  <si>
-    <t>(Spanish) Start flying track!</t>
-  </si>
-  <si>
     <t>Correct! You have earned {0} points - your session total is {1}</t>
   </si>
   <si>
@@ -126,10 +83,334 @@
     <t>You hit {0}</t>
   </si>
   <si>
-    <t>(German) You hit {0}</t>
-  </si>
-  <si>
-    <t>(Spanish) You hit {0}</t>
+    <t>(G) Press X or A to start</t>
+  </si>
+  <si>
+    <t>(G) Correct! You have earned {0} points - your session total is {0}</t>
+  </si>
+  <si>
+    <t>(G) Level failed! Press X or A to retry</t>
+  </si>
+  <si>
+    <t>(G) Fantastic!! You won!! Your session total was {0} points</t>
+  </si>
+  <si>
+    <t>(G) Pull trigger to select current track</t>
+  </si>
+  <si>
+    <t>(G) Start flying track!</t>
+  </si>
+  <si>
+    <t>(G) You hit {0}</t>
+  </si>
+  <si>
+    <t>(S) Press X or A to start</t>
+  </si>
+  <si>
+    <t>(S) Correct! You have earned {0} points - your session total is {0}</t>
+  </si>
+  <si>
+    <t>(S) Level failed! Press X or A to retry</t>
+  </si>
+  <si>
+    <t>(S) Fantastic!! You won!! Your session total was {0} points</t>
+  </si>
+  <si>
+    <t>(S) Pull trigger to select current track</t>
+  </si>
+  <si>
+    <t>(S) Start flying track!</t>
+  </si>
+  <si>
+    <t>(S) You hit {0}</t>
+  </si>
+  <si>
+    <t>ModeLabel</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>(G) Mode</t>
+  </si>
+  <si>
+    <t>(S) Mode</t>
+  </si>
+  <si>
+    <t>ModeBeginner</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>(G) Beginner</t>
+  </si>
+  <si>
+    <t>(S) Beginner</t>
+  </si>
+  <si>
+    <t>ModeAdvanced</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>(G) Advanced</t>
+  </si>
+  <si>
+    <t>(S) Advanced</t>
+  </si>
+  <si>
+    <t>SpeedLable</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>(G) Speed</t>
+  </si>
+  <si>
+    <t>(S) Speed</t>
+  </si>
+  <si>
+    <t>LanguageLabel</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>(G) Language</t>
+  </si>
+  <si>
+    <t>(S) Language</t>
+  </si>
+  <si>
+    <t>LanguageSelected</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>InstructionButton</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>(G) Instructions</t>
+  </si>
+  <si>
+    <t>(S) Instructions</t>
+  </si>
+  <si>
+    <t>ExitButton</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>(G) Exit</t>
+  </si>
+  <si>
+    <t>(S) Exit</t>
+  </si>
+  <si>
+    <t>InstructionStick</t>
+  </si>
+  <si>
+    <t>Move either joystick to fly forward/back</t>
+  </si>
+  <si>
+    <t>(G) Move either joystick to fly forward/back</t>
+  </si>
+  <si>
+    <t>(S) Move either joystick to fly forward/back</t>
+  </si>
+  <si>
+    <t>InstructionHead</t>
+  </si>
+  <si>
+    <t>Move head up/down to fly higher/lower</t>
+  </si>
+  <si>
+    <t>(G) Move head up/down to fly higher/lower</t>
+  </si>
+  <si>
+    <t>(S) Move head up/down to fly higher/lower</t>
+  </si>
+  <si>
+    <t>InstructionRecon</t>
+  </si>
+  <si>
+    <t>Recon flying is sightseeing - notes are not collected</t>
+  </si>
+  <si>
+    <t>(G) Recon flying is sightseeing - notes are not collected</t>
+  </si>
+  <si>
+    <t>(S) Recon flying is sightseeing - notes are not collected</t>
+  </si>
+  <si>
+    <t>InstructionPoints</t>
+  </si>
+  <si>
+    <t>Full points on first try, half points on second try</t>
+  </si>
+  <si>
+    <t>(G) Full points on first try, half points on second try</t>
+  </si>
+  <si>
+    <t>(S) Full points on first try, half points on second try</t>
+  </si>
+  <si>
+    <t>InstructionHamburger</t>
+  </si>
+  <si>
+    <t>Hamburger button (       ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>(G) Hamburger button (       ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>(S) Hamburger button (       ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>BackButton</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>(G) Back</t>
+  </si>
+  <si>
+    <t>(S) Back</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Start flying recon, or hit Y or B to select track to fly</t>
+  </si>
+  <si>
+    <t>(G) Start flying recon, or hit Y or B to select track to fly</t>
+  </si>
+  <si>
+    <t>(S) Start flying recon, or hit Y or B to select track to fly</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>(F) Press X or A to start</t>
+  </si>
+  <si>
+    <t>(F) Correct! You have earned {0} points - your session total is {1}</t>
+  </si>
+  <si>
+    <t>(F) Level failed! Press X or A to retry</t>
+  </si>
+  <si>
+    <t>(F) Fantastic!! You won!! Your session total was {0} points</t>
+  </si>
+  <si>
+    <t>(F) Pull trigger to select current track</t>
+  </si>
+  <si>
+    <t>(F) Start flying recon, or hit Y or B to select track to fly</t>
+  </si>
+  <si>
+    <t>(F) Start flying track!</t>
+  </si>
+  <si>
+    <t>(F) You hit {0}</t>
+  </si>
+  <si>
+    <t>(F) Mode</t>
+  </si>
+  <si>
+    <t>(F) Beginner</t>
+  </si>
+  <si>
+    <t>(F) Advanced</t>
+  </si>
+  <si>
+    <t>(F) Speed</t>
+  </si>
+  <si>
+    <t>(F) Language</t>
+  </si>
+  <si>
+    <t>(F) Instructions</t>
+  </si>
+  <si>
+    <t>(F) Exit</t>
+  </si>
+  <si>
+    <t>(F) Move either joystick to fly forward/back</t>
+  </si>
+  <si>
+    <t>(F) Move head up/down to fly higher/lower</t>
+  </si>
+  <si>
+    <t>(F) Recon flying is sightseeing - notes are not collected</t>
+  </si>
+  <si>
+    <t>(F) Full points on first try, half points on second try</t>
+  </si>
+  <si>
+    <t>(F) Hamburger button (       ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>(F) Back</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Francais</t>
+  </si>
+  <si>
+    <t>Level0Name</t>
+  </si>
+  <si>
+    <t>Level0Instructions</t>
+  </si>
+  <si>
+    <t>Level1Name</t>
+  </si>
+  <si>
+    <t>Level1Instructions</t>
+  </si>
+  <si>
+    <t>Level2Name</t>
+  </si>
+  <si>
+    <t>Level2Instructions</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Wing it!</t>
+  </si>
+  <si>
+    <t>Basic 5th</t>
+  </si>
+  <si>
+    <t>Listen to the tones and choose the path that matches</t>
+  </si>
+  <si>
+    <t>C Chord</t>
   </si>
 </sst>
 </file>
@@ -447,139 +728,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="4" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B11" t="s">
         <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="str">
+        <f>_xlfn.CONCAT("(G) ", B24)</f>
+        <v>(G) Testing</v>
+      </c>
+      <c r="D24" t="str">
+        <f>_xlfn.CONCAT("(S) ", B24)</f>
+        <v>(S) Testing</v>
+      </c>
+      <c r="E24" t="str">
+        <f>_xlfn.CONCAT("(F) ", B24)</f>
+        <v>(F) Testing</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="str">
+        <f>_xlfn.CONCAT("(G) ", B25)</f>
+        <v>(G) Wing it!</v>
+      </c>
+      <c r="D25" t="str">
+        <f>_xlfn.CONCAT("(S) ", B25)</f>
+        <v>(S) Wing it!</v>
+      </c>
+      <c r="E25" t="str">
+        <f>_xlfn.CONCAT("(F) ", B25)</f>
+        <v>(F) Wing it!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="str">
+        <f>_xlfn.CONCAT("(G) ", B26)</f>
+        <v>(G) Basic 5th</v>
+      </c>
+      <c r="D26" t="str">
+        <f>_xlfn.CONCAT("(S) ", B26)</f>
+        <v>(S) Basic 5th</v>
+      </c>
+      <c r="E26" t="str">
+        <f>_xlfn.CONCAT("(F) ", B26)</f>
+        <v>(F) Basic 5th</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="str">
+        <f>_xlfn.CONCAT("(G) ", B27)</f>
+        <v>(G) Listen to the tones and choose the path that matches</v>
+      </c>
+      <c r="D27" t="str">
+        <f>_xlfn.CONCAT("(S) ", B27)</f>
+        <v>(S) Listen to the tones and choose the path that matches</v>
+      </c>
+      <c r="E27" t="str">
+        <f>_xlfn.CONCAT("(F) ", B27)</f>
+        <v>(F) Listen to the tones and choose the path that matches</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="str">
+        <f>_xlfn.CONCAT("(G) ", B28)</f>
+        <v>(G) C Chord</v>
+      </c>
+      <c r="D28" t="str">
+        <f>_xlfn.CONCAT("(S) ", B28)</f>
+        <v>(S) C Chord</v>
+      </c>
+      <c r="E28" t="str">
+        <f>_xlfn.CONCAT("(F) ", B28)</f>
+        <v>(F) C Chord</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="str">
+        <f>_xlfn.CONCAT("(G) ", B29)</f>
+        <v>(G) Listen to the tones and choose the path that matches</v>
+      </c>
+      <c r="D29" t="str">
+        <f>_xlfn.CONCAT("(S) ", B29)</f>
+        <v>(S) Listen to the tones and choose the path that matches</v>
+      </c>
+      <c r="E29" t="str">
+        <f>_xlfn.CONCAT("(F) ", B29)</f>
+        <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD877487-E309-4B89-8728-BE3544699D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA86380-6D99-4A5B-B3AA-C0FF2DB2AE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="870" windowWidth="21600" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -65,18 +65,12 @@
     <t>Pull trigger to select current track</t>
   </si>
   <si>
-    <t>Reconnaissance</t>
-  </si>
-  <si>
     <t>FlyPrompt</t>
   </si>
   <si>
     <t>Start flying track!</t>
   </si>
   <si>
-    <t>Correct! You have earned {0} points - your session total is {1}</t>
-  </si>
-  <si>
     <t>NoteHit</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>(G) Press X or A to start</t>
   </si>
   <si>
-    <t>(G) Correct! You have earned {0} points - your session total is {0}</t>
-  </si>
-  <si>
     <t>(G) Level failed! Press X or A to retry</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>(S) Press X or A to start</t>
   </si>
   <si>
-    <t>(S) Correct! You have earned {0} points - your session total is {0}</t>
-  </si>
-  <si>
     <t>(S) Level failed! Press X or A to retry</t>
   </si>
   <si>
@@ -314,9 +302,6 @@
     <t>(F) Press X or A to start</t>
   </si>
   <si>
-    <t>(F) Correct! You have earned {0} points - your session total is {1}</t>
-  </si>
-  <si>
     <t>(F) Level failed! Press X or A to retry</t>
   </si>
   <si>
@@ -411,6 +396,36 @@
   </si>
   <si>
     <t>C Chord</t>
+  </si>
+  <si>
+    <t>InstructionButtons</t>
+  </si>
+  <si>
+    <t>Red/Green buttons replay the hint</t>
+  </si>
+  <si>
+    <t>(G) Red/Green buttons replay the hint</t>
+  </si>
+  <si>
+    <t>(S) Red/Green buttons replay the hint</t>
+  </si>
+  <si>
+    <t>(F) Red/Green buttons replay the hint</t>
+  </si>
+  <si>
+    <t>Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
+  </si>
+  <si>
+    <t>(G) Correct! You have earned {0} points - your session total is {0}! Press X or A for next level</t>
+  </si>
+  <si>
+    <t>(S) Correct! You have earned {0} points - your session total is {0}! Press X or A for next level</t>
+  </si>
+  <si>
+    <t>(F) Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
+  </si>
+  <si>
+    <t>Recon</t>
   </si>
 </sst>
 </file>
@@ -728,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,16 +758,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,13 +778,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,16 +792,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -797,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -814,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,421 +846,438 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" t="str">
-        <f>_xlfn.CONCAT("(G) ", B24)</f>
-        <v>(G) Testing</v>
-      </c>
-      <c r="D24" t="str">
-        <f>_xlfn.CONCAT("(S) ", B24)</f>
-        <v>(S) Testing</v>
-      </c>
-      <c r="E24" t="str">
-        <f>_xlfn.CONCAT("(F) ", B24)</f>
-        <v>(F) Testing</v>
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
         <v>115</v>
       </c>
-      <c r="B25" t="s">
-        <v>121</v>
-      </c>
       <c r="C25" t="str">
-        <f>_xlfn.CONCAT("(G) ", B25)</f>
-        <v>(G) Wing it!</v>
+        <f t="shared" ref="C25:C30" si="0">_xlfn.CONCAT("(G) ", B25)</f>
+        <v>(G) Testing</v>
       </c>
       <c r="D25" t="str">
-        <f>_xlfn.CONCAT("(S) ", B25)</f>
-        <v>(S) Wing it!</v>
+        <f t="shared" ref="D25:D30" si="1">_xlfn.CONCAT("(S) ", B25)</f>
+        <v>(S) Testing</v>
       </c>
       <c r="E25" t="str">
-        <f>_xlfn.CONCAT("(F) ", B25)</f>
-        <v>(F) Wing it!</v>
+        <f t="shared" ref="E25:E30" si="2">_xlfn.CONCAT("(F) ", B25)</f>
+        <v>(F) Testing</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
         <v>116</v>
       </c>
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
       <c r="C26" t="str">
-        <f>_xlfn.CONCAT("(G) ", B26)</f>
-        <v>(G) Basic 5th</v>
+        <f t="shared" si="0"/>
+        <v>(G) Wing it!</v>
       </c>
       <c r="D26" t="str">
-        <f>_xlfn.CONCAT("(S) ", B26)</f>
-        <v>(S) Basic 5th</v>
+        <f t="shared" si="1"/>
+        <v>(S) Wing it!</v>
       </c>
       <c r="E26" t="str">
-        <f>_xlfn.CONCAT("(F) ", B26)</f>
-        <v>(F) Basic 5th</v>
+        <f t="shared" si="2"/>
+        <v>(F) Wing it!</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
         <v>117</v>
       </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
       <c r="C27" t="str">
-        <f>_xlfn.CONCAT("(G) ", B27)</f>
-        <v>(G) Listen to the tones and choose the path that matches</v>
+        <f t="shared" si="0"/>
+        <v>(G) Basic 5th</v>
       </c>
       <c r="D27" t="str">
-        <f>_xlfn.CONCAT("(S) ", B27)</f>
-        <v>(S) Listen to the tones and choose the path that matches</v>
+        <f t="shared" si="1"/>
+        <v>(S) Basic 5th</v>
       </c>
       <c r="E27" t="str">
-        <f>_xlfn.CONCAT("(F) ", B27)</f>
-        <v>(F) Listen to the tones and choose the path that matches</v>
+        <f t="shared" si="2"/>
+        <v>(F) Basic 5th</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
         <v>118</v>
       </c>
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
       <c r="C28" t="str">
-        <f>_xlfn.CONCAT("(G) ", B28)</f>
-        <v>(G) C Chord</v>
+        <f t="shared" si="0"/>
+        <v>(G) Listen to the tones and choose the path that matches</v>
       </c>
       <c r="D28" t="str">
-        <f>_xlfn.CONCAT("(S) ", B28)</f>
-        <v>(S) C Chord</v>
+        <f t="shared" si="1"/>
+        <v>(S) Listen to the tones and choose the path that matches</v>
       </c>
       <c r="E28" t="str">
-        <f>_xlfn.CONCAT("(F) ", B28)</f>
-        <v>(F) C Chord</v>
+        <f t="shared" si="2"/>
+        <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
         <v>119</v>
       </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
       <c r="C29" t="str">
-        <f>_xlfn.CONCAT("(G) ", B29)</f>
+        <f t="shared" si="0"/>
+        <v>(G) C Chord</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>(S) C Chord</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>(F) C Chord</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
         <v>(G) Listen to the tones and choose the path that matches</v>
       </c>
-      <c r="D29" t="str">
-        <f>_xlfn.CONCAT("(S) ", B29)</f>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
         <v>(S) Listen to the tones and choose the path that matches</v>
       </c>
-      <c r="E29" t="str">
-        <f>_xlfn.CONCAT("(F) ", B29)</f>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA912611-542D-7C41-B9AF-676FEEB5C760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E937B8-B0EF-E144-8CA6-EFC15603191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="-24200" windowWidth="38440" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>InstructionHamburger</t>
   </si>
   <si>
-    <t>Hamburger button (       ) start/pause/resume game</t>
-  </si>
-  <si>
     <t>BackButton</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>(F) Full points on first try, half points on second try</t>
   </si>
   <si>
-    <t>(F) Hamburger button (       ) start/pause/resume game</t>
-  </si>
-  <si>
     <t>(F) Back</t>
   </si>
   <si>
@@ -284,9 +278,6 @@
     <t>InstructionButtons</t>
   </si>
   <si>
-    <t>Red/Green buttons replay the hint</t>
-  </si>
-  <si>
     <t>(F) Red/Green buttons replay the hint</t>
   </si>
   <si>
@@ -350,9 +341,6 @@
     <t>(G) Die grünen Knöpfe wiederholen die zu treffenden Töne</t>
   </si>
   <si>
-    <t>(G) Hamburger Knopf (       ) Start/Pause</t>
-  </si>
-  <si>
     <t>(G) Zurück</t>
   </si>
   <si>
@@ -434,12 +422,6 @@
     <t>(S) Todos los puntos en la primer prueba, medio puntos en el segundo intento</t>
   </si>
   <si>
-    <t>(S) Botones Rojos/Verdesc repiten las notas a tocar</t>
-  </si>
-  <si>
-    <t>(S) Boton Hamburgesa (       ) comenzar/pausar/resumir juego</t>
-  </si>
-  <si>
     <t>(S) Regresar</t>
   </si>
   <si>
@@ -456,6 +438,24 @@
   </si>
   <si>
     <t>(S) Acorde</t>
+  </si>
+  <si>
+    <t>(G) (       ) Start/Pause</t>
+  </si>
+  <si>
+    <t>(S) (       ) comenzar/pausar/resumir juego</t>
+  </si>
+  <si>
+    <t>(       ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>Green buttons replay the hint</t>
+  </si>
+  <si>
+    <t>(S) Botones verdesc repiten las notas a tocar</t>
+  </si>
+  <si>
+    <t>(F) (       ) start/pause/resume game</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D30"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -789,16 +789,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -809,13 +809,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -823,16 +823,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -843,13 +843,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -860,13 +860,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -877,30 +877,30 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,13 +911,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -928,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -945,13 +945,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -962,13 +962,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -979,13 +979,13 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -996,13 +996,13 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1013,13 +1013,13 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1033,10 +1033,10 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1047,13 +1047,13 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,10 +1067,10 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1081,13 +1081,13 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1095,16 +1095,16 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1115,13 +1115,13 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1132,30 +1132,30 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1163,47 +1163,47 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ref="E25:E30" si="0">_xlfn.CONCAT("(F) ", B25)</f>
@@ -1212,16 +1212,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -1248,16 +1248,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -1266,16 +1266,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA86380-6D99-4A5B-B3AA-C0FF2DB2AE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A95C71D-5211-6141-A0E9-6BD2AB46417E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="870" windowWidth="21600" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="-24200" windowWidth="38440" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -77,51 +77,12 @@
     <t>You hit {0}</t>
   </si>
   <si>
-    <t>(G) Press X or A to start</t>
-  </si>
-  <si>
-    <t>(G) Level failed! Press X or A to retry</t>
-  </si>
-  <si>
-    <t>(G) Fantastic!! You won!! Your session total was {0} points</t>
-  </si>
-  <si>
-    <t>(G) Pull trigger to select current track</t>
-  </si>
-  <si>
-    <t>(G) Start flying track!</t>
-  </si>
-  <si>
-    <t>(G) You hit {0}</t>
-  </si>
-  <si>
-    <t>(S) Press X or A to start</t>
-  </si>
-  <si>
-    <t>(S) Level failed! Press X or A to retry</t>
-  </si>
-  <si>
-    <t>(S) Fantastic!! You won!! Your session total was {0} points</t>
-  </si>
-  <si>
-    <t>(S) Pull trigger to select current track</t>
-  </si>
-  <si>
-    <t>(S) Start flying track!</t>
-  </si>
-  <si>
-    <t>(S) You hit {0}</t>
-  </si>
-  <si>
     <t>ModeLabel</t>
   </si>
   <si>
     <t>Mode</t>
   </si>
   <si>
-    <t>(G) Mode</t>
-  </si>
-  <si>
     <t>(S) Mode</t>
   </si>
   <si>
@@ -131,48 +92,24 @@
     <t>Beginner</t>
   </si>
   <si>
-    <t>(G) Beginner</t>
-  </si>
-  <si>
-    <t>(S) Beginner</t>
-  </si>
-  <si>
     <t>ModeAdvanced</t>
   </si>
   <si>
     <t>Advanced</t>
   </si>
   <si>
-    <t>(G) Advanced</t>
-  </si>
-  <si>
-    <t>(S) Advanced</t>
-  </si>
-  <si>
     <t>SpeedLable</t>
   </si>
   <si>
     <t>Speed</t>
   </si>
   <si>
-    <t>(G) Speed</t>
-  </si>
-  <si>
-    <t>(S) Speed</t>
-  </si>
-  <si>
     <t>LanguageLabel</t>
   </si>
   <si>
     <t>Language</t>
   </si>
   <si>
-    <t>(G) Language</t>
-  </si>
-  <si>
-    <t>(S) Language</t>
-  </si>
-  <si>
     <t>LanguageSelected</t>
   </si>
   <si>
@@ -188,12 +125,6 @@
     <t>Instructions</t>
   </si>
   <si>
-    <t>(G) Instructions</t>
-  </si>
-  <si>
-    <t>(S) Instructions</t>
-  </si>
-  <si>
     <t>ExitButton</t>
   </si>
   <si>
@@ -203,42 +134,21 @@
     <t>(G) Exit</t>
   </si>
   <si>
-    <t>(S) Exit</t>
-  </si>
-  <si>
     <t>InstructionStick</t>
   </si>
   <si>
     <t>Move either joystick to fly forward/back</t>
   </si>
   <si>
-    <t>(G) Move either joystick to fly forward/back</t>
-  </si>
-  <si>
-    <t>(S) Move either joystick to fly forward/back</t>
-  </si>
-  <si>
     <t>InstructionHead</t>
   </si>
   <si>
-    <t>Move head up/down to fly higher/lower</t>
-  </si>
-  <si>
-    <t>(G) Move head up/down to fly higher/lower</t>
-  </si>
-  <si>
-    <t>(S) Move head up/down to fly higher/lower</t>
-  </si>
-  <si>
     <t>InstructionRecon</t>
   </si>
   <si>
     <t>Recon flying is sightseeing - notes are not collected</t>
   </si>
   <si>
-    <t>(G) Recon flying is sightseeing - notes are not collected</t>
-  </si>
-  <si>
     <t>(S) Recon flying is sightseeing - notes are not collected</t>
   </si>
   <si>
@@ -248,36 +158,15 @@
     <t>Full points on first try, half points on second try</t>
   </si>
   <si>
-    <t>(G) Full points on first try, half points on second try</t>
-  </si>
-  <si>
-    <t>(S) Full points on first try, half points on second try</t>
-  </si>
-  <si>
     <t>InstructionHamburger</t>
   </si>
   <si>
-    <t>Hamburger button (       ) start/pause/resume game</t>
-  </si>
-  <si>
-    <t>(G) Hamburger button (       ) start/pause/resume game</t>
-  </si>
-  <si>
-    <t>(S) Hamburger button (       ) start/pause/resume game</t>
-  </si>
-  <si>
     <t>BackButton</t>
   </si>
   <si>
     <t>Back</t>
   </si>
   <si>
-    <t>(G) Back</t>
-  </si>
-  <si>
-    <t>(S) Back</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
@@ -290,12 +179,6 @@
     <t>Start flying recon, or hit Y or B to select track to fly</t>
   </si>
   <si>
-    <t>(G) Start flying recon, or hit Y or B to select track to fly</t>
-  </si>
-  <si>
-    <t>(S) Start flying recon, or hit Y or B to select track to fly</t>
-  </si>
-  <si>
     <t>fr</t>
   </si>
   <si>
@@ -353,15 +236,9 @@
     <t>(F) Full points on first try, half points on second try</t>
   </si>
   <si>
-    <t>(F) Hamburger button (       ) start/pause/resume game</t>
-  </si>
-  <si>
     <t>(F) Back</t>
   </si>
   <si>
-    <t>Espanol</t>
-  </si>
-  <si>
     <t>Francais</t>
   </si>
   <si>
@@ -401,31 +278,184 @@
     <t>InstructionButtons</t>
   </si>
   <si>
-    <t>Red/Green buttons replay the hint</t>
-  </si>
-  <si>
-    <t>(G) Red/Green buttons replay the hint</t>
-  </si>
-  <si>
-    <t>(S) Red/Green buttons replay the hint</t>
-  </si>
-  <si>
     <t>(F) Red/Green buttons replay the hint</t>
   </si>
   <si>
     <t>Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
   </si>
   <si>
-    <t>(G) Correct! You have earned {0} points - your session total is {0}! Press X or A for next level</t>
-  </si>
-  <si>
-    <t>(S) Correct! You have earned {0} points - your session total is {0}! Press X or A for next level</t>
-  </si>
-  <si>
     <t>(F) Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
   </si>
   <si>
     <t>Recon</t>
+  </si>
+  <si>
+    <t>(G) Drücke X oder A zum Starten</t>
+  </si>
+  <si>
+    <t>(G) Super! Du hast {0} Punkte erzielt - Gesamtwertung Deiner Sitzung: {0}! Weiter mit X oder A!</t>
+  </si>
+  <si>
+    <t>(G) Schade! Versuch es nochmal: drücke X oder A!</t>
+  </si>
+  <si>
+    <t>(G) Fantastish!! Gewonnen!! Gesamtwertung deiner Sitzung: {0} Punkte</t>
+  </si>
+  <si>
+    <t>(G) Wähle Deinen Track mit dem Trigger</t>
+  </si>
+  <si>
+    <t>(G) Drücke Y oder B zum Wählen deines Track. Schau' Dich gerne um!</t>
+  </si>
+  <si>
+    <t>(G) Flieg' los!</t>
+  </si>
+  <si>
+    <t>(G) Du hast {0} Punkte</t>
+  </si>
+  <si>
+    <t>(G) Modus</t>
+  </si>
+  <si>
+    <t>(G) Anfänger</t>
+  </si>
+  <si>
+    <t>(G) Fortgeschritten</t>
+  </si>
+  <si>
+    <t>(G) Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>(G) Sprache</t>
+  </si>
+  <si>
+    <t>(G) Anleitung</t>
+  </si>
+  <si>
+    <t>(G) 1. Versuch: volle Punktzahl - 2. Versuch: halbe Punktzahl</t>
+  </si>
+  <si>
+    <t>(G) Der Entdeckungsflug wird nicht gewertet.</t>
+  </si>
+  <si>
+    <t>(G) Die grünen Knöpfe wiederholen die zu treffenden Töne</t>
+  </si>
+  <si>
+    <t>(G) Zurück</t>
+  </si>
+  <si>
+    <t>(G) Test</t>
+  </si>
+  <si>
+    <t>(G) Du schafffst das!</t>
+  </si>
+  <si>
+    <t>(G) Hör' genau hin und wähle den richtigen Track</t>
+  </si>
+  <si>
+    <t>(G) C Akkord</t>
+  </si>
+  <si>
+    <t>(G) Grund-Quinte</t>
+  </si>
+  <si>
+    <t>(G) Joystick  vor/zurück um forwärts/rückwärts zu fliegen</t>
+  </si>
+  <si>
+    <t>(G) Lenke mit Deinem Kopf</t>
+  </si>
+  <si>
+    <t>Steer with your head</t>
+  </si>
+  <si>
+    <t>(S) Presione X o A para comenzar</t>
+  </si>
+  <si>
+    <t>(S) Correcto! Tu has ganado {0} puntos - tu sesión total es  {0}! Presione X o A para el próximo nivel</t>
+  </si>
+  <si>
+    <t>(S) Lo siento! Tu nivel ha fallado! Presiona X or A para reintentar</t>
+  </si>
+  <si>
+    <t>(S) Fantastico!! Tu Has ganado! Tu sesión total fue de {0} puntos</t>
+  </si>
+  <si>
+    <t>(S) Aprieta el botón para seleccionar la pista actual</t>
+  </si>
+  <si>
+    <t>(S) Comienza a volar recon, o pulsa Y o B para seleccionar la pista de vuelo No dudes en echar un vistazo.</t>
+  </si>
+  <si>
+    <t>(S) Comienza a volar!</t>
+  </si>
+  <si>
+    <t>(S) Te has impactado {0}</t>
+  </si>
+  <si>
+    <t>(S) Principiante</t>
+  </si>
+  <si>
+    <t>(S) Advanzado</t>
+  </si>
+  <si>
+    <t>(S) Velocidad</t>
+  </si>
+  <si>
+    <t>(S) Lenguaje</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>(S) Instrucciones</t>
+  </si>
+  <si>
+    <t>(S) Salida</t>
+  </si>
+  <si>
+    <t>(S) Mueva el  joystick para volar hacia adelante o atrás</t>
+  </si>
+  <si>
+    <t>(S) Mueve la cabeza hacia arriba o abajopara volar más alto o mas bajo</t>
+  </si>
+  <si>
+    <t>(S) Todos los puntos en la primer prueba, medio puntos en el segundo intento</t>
+  </si>
+  <si>
+    <t>(S) Regresar</t>
+  </si>
+  <si>
+    <t>(S) Probar</t>
+  </si>
+  <si>
+    <t>(S) Tu puedes!</t>
+  </si>
+  <si>
+    <t>(S) Quinto básico</t>
+  </si>
+  <si>
+    <t>(S) Escucha los tonos y elige el camino que corresponda</t>
+  </si>
+  <si>
+    <t>(S) Acorde</t>
+  </si>
+  <si>
+    <t>(G) (       ) Start/Pause</t>
+  </si>
+  <si>
+    <t>(S) (       ) comenzar/pausar/resumir juego</t>
+  </si>
+  <si>
+    <t>(       ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>Green buttons replay the hint</t>
+  </si>
+  <si>
+    <t>(S) Botones verdesc repiten las notas a tocar</t>
+  </si>
+  <si>
+    <t>(F) (       ) start/pause/resume game</t>
   </si>
 </sst>
 </file>
@@ -465,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -745,32 +775,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="4" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="66.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -778,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -812,16 +843,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -829,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -846,33 +877,33 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -880,16 +911,16 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -897,387 +928,375 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E30" si="0">_xlfn.CONCAT("(F) ", B25)</f>
+        <v>(F) Testing</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Wing it!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Basic 5th</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="E21" t="s">
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Listen to the tones and choose the path that matches</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>72</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) C Chord</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>73</v>
       </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B30" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C30" si="0">_xlfn.CONCAT("(G) ", B25)</f>
-        <v>(G) Testing</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" ref="D25:D30" si="1">_xlfn.CONCAT("(S) ", B25)</f>
-        <v>(S) Testing</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E30" si="2">_xlfn.CONCAT("(F) ", B25)</f>
-        <v>(F) Testing</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" t="str">
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>(G) Wing it!</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>(S) Wing it!</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="2"/>
-        <v>(F) Wing it!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>(G) Basic 5th</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>(S) Basic 5th</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="2"/>
-        <v>(F) Basic 5th</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>(G) Listen to the tones and choose the path that matches</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>(S) Listen to the tones and choose the path that matches</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>(G) C Chord</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>(S) C Chord</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="2"/>
-        <v>(F) C Chord</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>(G) Listen to the tones and choose the path that matches</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>(S) Listen to the tones and choose the path that matches</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="2"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A95C71D-5211-6141-A0E9-6BD2AB46417E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00815F1-2E89-4689-A86D-5A63264735F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-24200" windowWidth="38440" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Mode</t>
   </si>
   <si>
-    <t>(S) Mode</t>
-  </si>
-  <si>
     <t>ModeBeginner</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Exit</t>
   </si>
   <si>
-    <t>(G) Exit</t>
-  </si>
-  <si>
     <t>InstructionStick</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Recon flying is sightseeing - notes are not collected</t>
   </si>
   <si>
-    <t>(S) Recon flying is sightseeing - notes are not collected</t>
-  </si>
-  <si>
     <t>InstructionPoints</t>
   </si>
   <si>
@@ -281,181 +272,253 @@
     <t>(F) Red/Green buttons replay the hint</t>
   </si>
   <si>
+    <t>(F) Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
+  </si>
+  <si>
+    <t>Recon</t>
+  </si>
+  <si>
+    <t>Steer with your head</t>
+  </si>
+  <si>
+    <t>(       ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>Green buttons replay the hint</t>
+  </si>
+  <si>
+    <t>(F) (       ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>IAALevel1Name</t>
+  </si>
+  <si>
+    <t>IAALevel1Description</t>
+  </si>
+  <si>
+    <t>IAALevel2Name</t>
+  </si>
+  <si>
+    <t>IAALevel3Description</t>
+  </si>
+  <si>
+    <t>IAALevel2Description</t>
+  </si>
+  <si>
+    <t>IAALevel3Name</t>
+  </si>
+  <si>
+    <t>IAALevel4Name</t>
+  </si>
+  <si>
+    <t>IAALevel4Description</t>
+  </si>
+  <si>
+    <t>IAALevel5Name</t>
+  </si>
+  <si>
+    <t>IAALevel5Description</t>
+  </si>
+  <si>
+    <t>IAALevel6Name</t>
+  </si>
+  <si>
+    <t>IAALevel6Description</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>Drücke X oder A zum Starten</t>
+  </si>
+  <si>
+    <t>Schade! Versuch es nochmal: drücke X oder A!</t>
+  </si>
+  <si>
+    <t>Fantastish!! Gewonnen!! Gesamtwertung deiner Sitzung: {0} Punkte</t>
+  </si>
+  <si>
+    <t>Wähle Deinen Track mit dem Trigger</t>
+  </si>
+  <si>
+    <t>Drücke Y oder B zum Wählen deines Track. Schau' Dich gerne um!</t>
+  </si>
+  <si>
+    <t>Flieg' los!</t>
+  </si>
+  <si>
+    <t>Du hast {0} Punkte</t>
+  </si>
+  <si>
+    <t>Modus</t>
+  </si>
+  <si>
+    <t>Anfänger</t>
+  </si>
+  <si>
+    <t>Fortgeschritten</t>
+  </si>
+  <si>
+    <t>Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>Anleitung</t>
+  </si>
+  <si>
+    <t>Joystick  vor/zurück um forwärts/rückwärts zu fliegen</t>
+  </si>
+  <si>
+    <t>Lenke mit Deinem Kopf</t>
+  </si>
+  <si>
+    <t>Der Entdeckungsflug wird nicht gewertet.</t>
+  </si>
+  <si>
+    <t>1. Versuch: volle Punktzahl - 2. Versuch: halbe Punktzahl</t>
+  </si>
+  <si>
+    <t>Die grünen Knöpfe wiederholen die zu treffenden Töne</t>
+  </si>
+  <si>
+    <t>(       ) Start/Pause</t>
+  </si>
+  <si>
+    <t>Zurück</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Du schafffst das!</t>
+  </si>
+  <si>
+    <t>Grund-Quinte</t>
+  </si>
+  <si>
+    <t>Hör' genau hin und wähle den richtigen Track</t>
+  </si>
+  <si>
+    <t>C Akkord</t>
+  </si>
+  <si>
+    <t>Super! Du hast {0} Punkte erzielt - Gesamtwertung Deiner Sitzung: {1}! Weiter mit X oder A!</t>
+  </si>
+  <si>
+    <t>Presione X o A para comenzar</t>
+  </si>
+  <si>
+    <t>Correcto! Tu has ganado {0} puntos - tu sesión total es  {0}! Presione X o A para el próximo nivel</t>
+  </si>
+  <si>
+    <t>Lo siento! Tu nivel ha fallado! Presiona X or A para reintentar</t>
+  </si>
+  <si>
+    <t>Fantastico!! Tu Has ganado! Tu sesión total fue de {0} puntos</t>
+  </si>
+  <si>
+    <t>Aprieta el botón para seleccionar la pista actual</t>
+  </si>
+  <si>
+    <t>Comienza a volar recon, o pulsa Y o B para seleccionar la pista de vuelo No dudes en echar un vistazo.</t>
+  </si>
+  <si>
+    <t>Comienza a volar!</t>
+  </si>
+  <si>
+    <t>Te has impactado {0}</t>
+  </si>
+  <si>
+    <t>Principiante</t>
+  </si>
+  <si>
+    <t>Advanzado</t>
+  </si>
+  <si>
+    <t>Velocidad</t>
+  </si>
+  <si>
+    <t>Lenguaje</t>
+  </si>
+  <si>
+    <t>Instrucciones</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Mueva el  joystick para volar hacia adelante o atrás</t>
+  </si>
+  <si>
+    <t>Mueve la cabeza hacia arriba o abajopara volar más alto o mas bajo</t>
+  </si>
+  <si>
+    <t>Todos los puntos en la primer prueba, medio puntos en el segundo intento</t>
+  </si>
+  <si>
+    <t>Botones verdesc repiten las notas a tocar</t>
+  </si>
+  <si>
+    <t>(       ) comenzar/pausar/resumir juego</t>
+  </si>
+  <si>
+    <t>Regresar</t>
+  </si>
+  <si>
+    <t>Probar</t>
+  </si>
+  <si>
+    <t>Tu puedes!</t>
+  </si>
+  <si>
+    <t>Quinto básico</t>
+  </si>
+  <si>
+    <t>Escucha los tonos y elige el camino que corresponda</t>
+  </si>
+  <si>
+    <t>Acorde</t>
+  </si>
+  <si>
+    <t>Nivel 1</t>
+  </si>
+  <si>
+    <t>Nivel 2</t>
+  </si>
+  <si>
+    <t>Nivel 3</t>
+  </si>
+  <si>
+    <t>Nivel 4</t>
+  </si>
+  <si>
+    <t>Nivel 5</t>
+  </si>
+  <si>
+    <t>Nivel 6</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
     <t>Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
-  </si>
-  <si>
-    <t>(F) Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
-  </si>
-  <si>
-    <t>Recon</t>
-  </si>
-  <si>
-    <t>(G) Drücke X oder A zum Starten</t>
-  </si>
-  <si>
-    <t>(G) Super! Du hast {0} Punkte erzielt - Gesamtwertung Deiner Sitzung: {0}! Weiter mit X oder A!</t>
-  </si>
-  <si>
-    <t>(G) Schade! Versuch es nochmal: drücke X oder A!</t>
-  </si>
-  <si>
-    <t>(G) Fantastish!! Gewonnen!! Gesamtwertung deiner Sitzung: {0} Punkte</t>
-  </si>
-  <si>
-    <t>(G) Wähle Deinen Track mit dem Trigger</t>
-  </si>
-  <si>
-    <t>(G) Drücke Y oder B zum Wählen deines Track. Schau' Dich gerne um!</t>
-  </si>
-  <si>
-    <t>(G) Flieg' los!</t>
-  </si>
-  <si>
-    <t>(G) Du hast {0} Punkte</t>
-  </si>
-  <si>
-    <t>(G) Modus</t>
-  </si>
-  <si>
-    <t>(G) Anfänger</t>
-  </si>
-  <si>
-    <t>(G) Fortgeschritten</t>
-  </si>
-  <si>
-    <t>(G) Geschwindigkeit</t>
-  </si>
-  <si>
-    <t>(G) Sprache</t>
-  </si>
-  <si>
-    <t>(G) Anleitung</t>
-  </si>
-  <si>
-    <t>(G) 1. Versuch: volle Punktzahl - 2. Versuch: halbe Punktzahl</t>
-  </si>
-  <si>
-    <t>(G) Der Entdeckungsflug wird nicht gewertet.</t>
-  </si>
-  <si>
-    <t>(G) Die grünen Knöpfe wiederholen die zu treffenden Töne</t>
-  </si>
-  <si>
-    <t>(G) Zurück</t>
-  </si>
-  <si>
-    <t>(G) Test</t>
-  </si>
-  <si>
-    <t>(G) Du schafffst das!</t>
-  </si>
-  <si>
-    <t>(G) Hör' genau hin und wähle den richtigen Track</t>
-  </si>
-  <si>
-    <t>(G) C Akkord</t>
-  </si>
-  <si>
-    <t>(G) Grund-Quinte</t>
-  </si>
-  <si>
-    <t>(G) Joystick  vor/zurück um forwärts/rückwärts zu fliegen</t>
-  </si>
-  <si>
-    <t>(G) Lenke mit Deinem Kopf</t>
-  </si>
-  <si>
-    <t>Steer with your head</t>
-  </si>
-  <si>
-    <t>(S) Presione X o A para comenzar</t>
-  </si>
-  <si>
-    <t>(S) Correcto! Tu has ganado {0} puntos - tu sesión total es  {0}! Presione X o A para el próximo nivel</t>
-  </si>
-  <si>
-    <t>(S) Lo siento! Tu nivel ha fallado! Presiona X or A para reintentar</t>
-  </si>
-  <si>
-    <t>(S) Fantastico!! Tu Has ganado! Tu sesión total fue de {0} puntos</t>
-  </si>
-  <si>
-    <t>(S) Aprieta el botón para seleccionar la pista actual</t>
-  </si>
-  <si>
-    <t>(S) Comienza a volar recon, o pulsa Y o B para seleccionar la pista de vuelo No dudes en echar un vistazo.</t>
-  </si>
-  <si>
-    <t>(S) Comienza a volar!</t>
-  </si>
-  <si>
-    <t>(S) Te has impactado {0}</t>
-  </si>
-  <si>
-    <t>(S) Principiante</t>
-  </si>
-  <si>
-    <t>(S) Advanzado</t>
-  </si>
-  <si>
-    <t>(S) Velocidad</t>
-  </si>
-  <si>
-    <t>(S) Lenguaje</t>
-  </si>
-  <si>
-    <t>Español</t>
-  </si>
-  <si>
-    <t>(S) Instrucciones</t>
-  </si>
-  <si>
-    <t>(S) Salida</t>
-  </si>
-  <si>
-    <t>(S) Mueva el  joystick para volar hacia adelante o atrás</t>
-  </si>
-  <si>
-    <t>(S) Mueve la cabeza hacia arriba o abajopara volar más alto o mas bajo</t>
-  </si>
-  <si>
-    <t>(S) Todos los puntos en la primer prueba, medio puntos en el segundo intento</t>
-  </si>
-  <si>
-    <t>(S) Regresar</t>
-  </si>
-  <si>
-    <t>(S) Probar</t>
-  </si>
-  <si>
-    <t>(S) Tu puedes!</t>
-  </si>
-  <si>
-    <t>(S) Quinto básico</t>
-  </si>
-  <si>
-    <t>(S) Escucha los tonos y elige el camino que corresponda</t>
-  </si>
-  <si>
-    <t>(S) Acorde</t>
-  </si>
-  <si>
-    <t>(G) (       ) Start/Pause</t>
-  </si>
-  <si>
-    <t>(S) (       ) comenzar/pausar/resumir juego</t>
-  </si>
-  <si>
-    <t>(       ) start/pause/resume game</t>
-  </si>
-  <si>
-    <t>Green buttons replay the hint</t>
-  </si>
-  <si>
-    <t>(S) Botones verdesc repiten las notas a tocar</t>
-  </si>
-  <si>
-    <t>(F) (       ) start/pause/resume game</t>
   </si>
 </sst>
 </file>
@@ -495,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -773,35 +836,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="66.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.85546875" customWidth="1"/>
+    <col min="4" max="4" width="96" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -809,33 +873,33 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -843,16 +907,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -860,16 +924,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -877,33 +941,33 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -911,16 +975,16 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -928,16 +992,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -945,357 +1009,573 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E42" si="0">_xlfn.CONCAT("(F) ", B25)</f>
+        <v>(F) Testing</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Wing it!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Basic 5th</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Listen to the tones and choose the path that matches</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) C Chord</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Listen to the tones and choose the path that matches</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Level 1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Listen to the tones and choose the path that matches</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Level 2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Listen to the tones and choose the path that matches</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Level 3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Listen to the tones and choose the path that matches</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Level 4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Listen to the tones and choose the path that matches</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>92</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Level 5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Listen to the tones and choose the path that matches</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>94</v>
       </c>
-      <c r="D12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Level 6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>95</v>
       </c>
-      <c r="D13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
         <v>125</v>
       </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E30" si="0">_xlfn.CONCAT("(F) ", B25)</f>
-        <v>(F) Testing</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>(F) Wing it!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>(F) Basic 5th</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>(F) C Chord</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" t="str">
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00815F1-2E89-4689-A86D-5A63264735F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810CB9FF-4AA6-44D8-AB28-98E1B81AD9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,15 +281,9 @@
     <t>Steer with your head</t>
   </si>
   <si>
-    <t>(       ) start/pause/resume game</t>
-  </si>
-  <si>
     <t>Green buttons replay the hint</t>
   </si>
   <si>
-    <t>(F) (       ) start/pause/resume game</t>
-  </si>
-  <si>
     <t>IAALevel1Name</t>
   </si>
   <si>
@@ -398,9 +392,6 @@
     <t>Die grünen Knöpfe wiederholen die zu treffenden Töne</t>
   </si>
   <si>
-    <t>(       ) Start/Pause</t>
-  </si>
-  <si>
     <t>Zurück</t>
   </si>
   <si>
@@ -476,9 +467,6 @@
     <t>Botones verdesc repiten las notas a tocar</t>
   </si>
   <si>
-    <t>(       ) comenzar/pausar/resumir juego</t>
-  </si>
-  <si>
     <t>Regresar</t>
   </si>
   <si>
@@ -519,6 +507,18 @@
   </si>
   <si>
     <t>Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
+  </si>
+  <si>
+    <t>( &lt;sprite name="FlatHamburger" ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>( &lt;sprite name="FlatHamburger" ) Start/Pause</t>
+  </si>
+  <si>
+    <t>( &lt;sprite name="FlatHamburger" ) comenzar/pausar/resumir juego</t>
+  </si>
+  <si>
+    <t>(F) ( &lt;sprite name="FlatHamburger" ) start/pause/resume game</t>
   </si>
 </sst>
 </file>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -887,13 +887,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>78</v>
@@ -907,10 +907,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
@@ -924,10 +924,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -941,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
@@ -958,10 +958,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
@@ -975,10 +975,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
@@ -992,10 +992,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -1009,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1026,10 +1026,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
@@ -1043,10 +1043,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
@@ -1060,10 +1060,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
         <v>55</v>
@@ -1077,10 +1077,10 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
@@ -1097,7 +1097,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
         <v>64</v>
@@ -1111,10 +1111,10 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
         <v>57</v>
@@ -1131,7 +1131,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
         <v>58</v>
@@ -1145,10 +1145,10 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
@@ -1162,10 +1162,10 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -1179,7 +1179,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -1196,10 +1196,10 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
         <v>62</v>
@@ -1210,13 +1210,13 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
         <v>77</v>
@@ -1227,16 +1227,16 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,10 +1247,10 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
@@ -1264,10 +1264,10 @@
         <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ref="E25:E42" si="0">_xlfn.CONCAT("(F) ", B25)</f>
@@ -1282,10 +1282,10 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -1300,10 +1300,10 @@
         <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -1318,10 +1318,10 @@
         <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -1336,10 +1336,10 @@
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -1354,10 +1354,10 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -1366,16 +1366,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -1384,16 +1384,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -1402,16 +1402,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -1420,16 +1420,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -1438,16 +1438,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -1456,16 +1456,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -1474,16 +1474,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -1492,16 +1492,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -1528,16 +1528,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
         <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -1546,16 +1546,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -1564,16 +1564,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00815F1-2E89-4689-A86D-5A63264735F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5DF599-D2EF-3547-A236-C6B3417D742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2660" yWindow="-22520" windowWidth="35840" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="162">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -440,9 +440,6 @@
     <t>Comienza a volar recon, o pulsa Y o B para seleccionar la pista de vuelo No dudes en echar un vistazo.</t>
   </si>
   <si>
-    <t>Comienza a volar!</t>
-  </si>
-  <si>
     <t>Te has impactado {0}</t>
   </si>
   <si>
@@ -519,6 +516,12 @@
   </si>
   <si>
     <t>Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
+  </si>
+  <si>
+    <t>Recon está volando sobre los paisajes? Las notas no se han colectado</t>
+  </si>
+  <si>
+    <t>Vamo' arriba!</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -838,20 +841,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="66.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.83203125" customWidth="1"/>
     <col min="4" max="4" width="96" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -865,7 +868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -882,12 +885,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -899,7 +902,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -916,7 +919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -933,7 +936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -950,7 +953,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -967,7 +970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -978,13 +981,13 @@
         <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -995,13 +998,13 @@
         <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1029,13 +1032,13 @@
         <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1046,13 +1049,13 @@
         <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1063,13 +1066,13 @@
         <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1080,13 +1083,13 @@
         <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1097,13 +1100,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1114,13 +1117,13 @@
         <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1131,13 +1134,13 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1148,13 +1151,13 @@
         <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1165,13 +1168,13 @@
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1182,13 +1185,13 @@
         <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1199,13 +1202,13 @@
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1216,13 +1219,13 @@
         <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1233,13 +1236,13 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1250,13 +1253,13 @@
         <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1267,14 +1270,14 @@
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ref="E25:E42" si="0">_xlfn.CONCAT("(F) ", B25)</f>
         <v>(F) Testing</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1285,14 +1288,14 @@
         <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>(F) Wing it!</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1303,14 +1306,14 @@
         <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>(F) Basic 5th</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1321,14 +1324,14 @@
         <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1339,14 +1342,14 @@
         <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>(F) C Chord</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -1357,14 +1360,14 @@
         <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -1375,14 +1378,14 @@
         <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -1393,14 +1396,14 @@
         <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -1411,14 +1414,14 @@
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -1429,14 +1432,14 @@
         <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -1447,14 +1450,14 @@
         <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -1465,14 +1468,14 @@
         <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -1483,14 +1486,14 @@
         <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1501,14 +1504,14 @@
         <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -1519,14 +1522,14 @@
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -1537,14 +1540,14 @@
         <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -1555,14 +1558,14 @@
         <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5DF599-D2EF-3547-A236-C6B3417D742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2F406-EF35-44D8-9E9D-F20F54B9F240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2660" yWindow="-22520" windowWidth="35840" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
@@ -281,15 +281,9 @@
     <t>Steer with your head</t>
   </si>
   <si>
-    <t>(       ) start/pause/resume game</t>
-  </si>
-  <si>
     <t>Green buttons replay the hint</t>
   </si>
   <si>
-    <t>(F) (       ) start/pause/resume game</t>
-  </si>
-  <si>
     <t>IAALevel1Name</t>
   </si>
   <si>
@@ -398,9 +392,6 @@
     <t>Die grünen Knöpfe wiederholen die zu treffenden Töne</t>
   </si>
   <si>
-    <t>(       ) Start/Pause</t>
-  </si>
-  <si>
     <t>Zurück</t>
   </si>
   <si>
@@ -473,9 +464,6 @@
     <t>Botones verdesc repiten las notas a tocar</t>
   </si>
   <si>
-    <t>(       ) comenzar/pausar/resumir juego</t>
-  </si>
-  <si>
     <t>Regresar</t>
   </si>
   <si>
@@ -522,6 +510,18 @@
   </si>
   <si>
     <t>Vamo' arriba!</t>
+  </si>
+  <si>
+    <t>(  &lt;sprite name="FlatHamburger" ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>(  &lt;sprite name="FlatHamburger" ) Start/Pause</t>
+  </si>
+  <si>
+    <t>(  &lt;sprite name="FlatHamburger" ) comenzar/pausar/resumir juego</t>
+  </si>
+  <si>
+    <t>(F) (  &lt;sprite name="FlatHamburger" ) start/pause/resume game</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,20 +841,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="66.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.85546875" customWidth="1"/>
     <col min="4" max="4" width="96" customWidth="1"/>
-    <col min="5" max="5" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -868,7 +868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -876,33 +876,33 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -910,16 +910,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -927,16 +927,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -944,16 +944,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -961,16 +961,16 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -978,16 +978,16 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -995,16 +995,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1021,7 +1021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1029,16 +1029,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1046,16 +1046,16 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1063,16 +1063,16 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1080,16 +1080,16 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1100,13 +1100,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1114,16 +1114,16 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1134,13 +1134,13 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1148,16 +1148,16 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1165,16 +1165,16 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1182,16 +1182,16 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1199,50 +1199,50 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1250,16 +1250,16 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1267,17 +1267,17 @@
         <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ref="E25:E42" si="0">_xlfn.CONCAT("(F) ", B25)</f>
         <v>(F) Testing</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1285,17 +1285,17 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>(F) Wing it!</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1303,17 +1303,17 @@
         <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>(F) Basic 5th</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1321,17 +1321,17 @@
         <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1339,17 +1339,17 @@
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>(F) C Chord</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -1357,226 +1357,226 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Level 2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>(F) Level 2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>88</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Listen to the tones and choose the path that matches</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
         <v>150</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" t="s">
-        <v>154</v>
-      </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
         <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>(F) Level 6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2F406-EF35-44D8-9E9D-F20F54B9F240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BD899A-B6BE-4B22-BEFC-F22EA1650A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -122,12 +122,6 @@
     <t>Instructions</t>
   </si>
   <si>
-    <t>ExitButton</t>
-  </si>
-  <si>
-    <t>Exit</t>
-  </si>
-  <si>
     <t>InstructionStick</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>(F) Instructions</t>
   </si>
   <si>
-    <t>(F) Exit</t>
-  </si>
-  <si>
     <t>(F) Move either joystick to fly forward/back</t>
   </si>
   <si>
@@ -449,9 +440,6 @@
     <t>Instrucciones</t>
   </si>
   <si>
-    <t>Salida</t>
-  </si>
-  <si>
     <t>Mueva el  joystick para volar hacia adelante o atrás</t>
   </si>
   <si>
@@ -522,6 +510,21 @@
   </si>
   <si>
     <t>(F) (  &lt;sprite name="FlatHamburger" ) start/pause/resume game</t>
+  </si>
+  <si>
+    <t>RestartButton</t>
+  </si>
+  <si>
+    <t>Restart</t>
+  </si>
+  <si>
+    <t>Neustart</t>
+  </si>
+  <si>
+    <t>Reanudar</t>
+  </si>
+  <si>
+    <t>(F) Restart</t>
   </si>
 </sst>
 </file>
@@ -841,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,16 +859,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,13 +879,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,16 +893,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,13 +930,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,30 +947,30 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,13 +998,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,13 +1015,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,13 +1049,13 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,13 +1066,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,10 +1103,10 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,163 +1117,163 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ref="E25:E42" si="0">_xlfn.CONCAT("(F) ", B25)</f>
@@ -1279,16 +1282,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -1297,16 +1300,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -1315,16 +1318,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -1333,16 +1336,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -1351,16 +1354,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -1369,16 +1372,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -1387,16 +1390,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -1405,16 +1408,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -1423,16 +1426,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -1441,16 +1444,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -1459,16 +1462,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -1477,16 +1480,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -1495,16 +1498,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -1513,16 +1516,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -1531,16 +1534,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -1549,16 +1552,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -1567,16 +1570,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BD899A-B6BE-4B22-BEFC-F22EA1650A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB9EAB3-B26A-47EC-9344-41D75F5FF327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="298">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -525,16 +525,427 @@
   </si>
   <si>
     <t>(F) Restart</t>
+  </si>
+  <si>
+    <t>TutorialName</t>
+  </si>
+  <si>
+    <t>Tutorial Level</t>
+  </si>
+  <si>
+    <t>Nivel Tutorial</t>
+  </si>
+  <si>
+    <t>TutorialClip01</t>
+  </si>
+  <si>
+    <t>Welcome to the OctaviCopter!  You are about to embark on a journey where virtual reality meets musical exploration!</t>
+  </si>
+  <si>
+    <t>German version of clip 01</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 01</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 02</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 03</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 04</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 05</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 06</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 07</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 08</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 09</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 10</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 11</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 12</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 13</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 14</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 15</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 16</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 17</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 18</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 19</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 20</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 21</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 22</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 23</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 24</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 25</t>
+  </si>
+  <si>
+    <t>German version of clip 02</t>
+  </si>
+  <si>
+    <t>German version of clip 03</t>
+  </si>
+  <si>
+    <t>German version of clip 04</t>
+  </si>
+  <si>
+    <t>German version of clip 05</t>
+  </si>
+  <si>
+    <t>German version of clip 06</t>
+  </si>
+  <si>
+    <t>German version of clip 07</t>
+  </si>
+  <si>
+    <t>German version of clip 08</t>
+  </si>
+  <si>
+    <t>German version of clip 09</t>
+  </si>
+  <si>
+    <t>German version of clip 10</t>
+  </si>
+  <si>
+    <t>German version of clip 11</t>
+  </si>
+  <si>
+    <t>German version of clip 12</t>
+  </si>
+  <si>
+    <t>German version of clip 13</t>
+  </si>
+  <si>
+    <t>German version of clip 14</t>
+  </si>
+  <si>
+    <t>German version of clip 15</t>
+  </si>
+  <si>
+    <t>German version of clip 16</t>
+  </si>
+  <si>
+    <t>German version of clip 17</t>
+  </si>
+  <si>
+    <t>German version of clip 18</t>
+  </si>
+  <si>
+    <t>German version of clip 19</t>
+  </si>
+  <si>
+    <t>German version of clip 20</t>
+  </si>
+  <si>
+    <t>German version of clip 21</t>
+  </si>
+  <si>
+    <t>German version of clip 22</t>
+  </si>
+  <si>
+    <t>German version of clip 23</t>
+  </si>
+  <si>
+    <t>German version of clip 24</t>
+  </si>
+  <si>
+    <t>German version of clip 25</t>
+  </si>
+  <si>
+    <t>French version of clip 01</t>
+  </si>
+  <si>
+    <t>French version of clip 02</t>
+  </si>
+  <si>
+    <t>French version of clip 03</t>
+  </si>
+  <si>
+    <t>French version of clip 04</t>
+  </si>
+  <si>
+    <t>French version of clip 05</t>
+  </si>
+  <si>
+    <t>French version of clip 06</t>
+  </si>
+  <si>
+    <t>French version of clip 07</t>
+  </si>
+  <si>
+    <t>French version of clip 08</t>
+  </si>
+  <si>
+    <t>French version of clip 09</t>
+  </si>
+  <si>
+    <t>French version of clip 10</t>
+  </si>
+  <si>
+    <t>French version of clip 11</t>
+  </si>
+  <si>
+    <t>French version of clip 12</t>
+  </si>
+  <si>
+    <t>French version of clip 13</t>
+  </si>
+  <si>
+    <t>French version of clip 14</t>
+  </si>
+  <si>
+    <t>French version of clip 15</t>
+  </si>
+  <si>
+    <t>French version of clip 16</t>
+  </si>
+  <si>
+    <t>French version of clip 17</t>
+  </si>
+  <si>
+    <t>French version of clip 18</t>
+  </si>
+  <si>
+    <t>French version of clip 19</t>
+  </si>
+  <si>
+    <t>French version of clip 20</t>
+  </si>
+  <si>
+    <t>French version of clip 21</t>
+  </si>
+  <si>
+    <t>French version of clip 22</t>
+  </si>
+  <si>
+    <t>French version of clip 23</t>
+  </si>
+  <si>
+    <t>French version of clip 24</t>
+  </si>
+  <si>
+    <t>French version of clip 25</t>
+  </si>
+  <si>
+    <t>TutorialClip02</t>
+  </si>
+  <si>
+    <t>TutorialClip03</t>
+  </si>
+  <si>
+    <t>TutorialClip04</t>
+  </si>
+  <si>
+    <t>TutorialClip05</t>
+  </si>
+  <si>
+    <t>TutorialClip06</t>
+  </si>
+  <si>
+    <t>TutorialClip07</t>
+  </si>
+  <si>
+    <t>TutorialClip08</t>
+  </si>
+  <si>
+    <t>TutorialClip09</t>
+  </si>
+  <si>
+    <t>TutorialClip10</t>
+  </si>
+  <si>
+    <t>TutorialClip11</t>
+  </si>
+  <si>
+    <t>TutorialClip12</t>
+  </si>
+  <si>
+    <t>TutorialClip13</t>
+  </si>
+  <si>
+    <t>TutorialClip14</t>
+  </si>
+  <si>
+    <t>TutorialClip15</t>
+  </si>
+  <si>
+    <t>TutorialClip16</t>
+  </si>
+  <si>
+    <t>TutorialClip17</t>
+  </si>
+  <si>
+    <t>TutorialClip18</t>
+  </si>
+  <si>
+    <t>TutorialClip19</t>
+  </si>
+  <si>
+    <t>TutorialClip20</t>
+  </si>
+  <si>
+    <t>TutorialClip21</t>
+  </si>
+  <si>
+    <t>TutorialClip22</t>
+  </si>
+  <si>
+    <t>TutorialClip23</t>
+  </si>
+  <si>
+    <t>TutorialClip24</t>
+  </si>
+  <si>
+    <t>TutorialClip25</t>
+  </si>
+  <si>
+    <t>We will begin with an introduction to how the OctaviCopter works, and what you will be expected to do with it.</t>
+  </si>
+  <si>
+    <t>What you see in front of you are coloured spheres that represent the notes of the C Major scale.</t>
+  </si>
+  <si>
+    <t>The pitch is indicated by both the colour of the sphere and the height at which it is placed.</t>
+  </si>
+  <si>
+    <t>You will use the OctaveCopter to collect notes by flying through them.  To fly, push either one of the joysticks forward.  You steer with your head by facing your target.</t>
+  </si>
+  <si>
+    <t>Try flying through the red one now.</t>
+  </si>
+  <si>
+    <t>Good! Now, fly through the yellow one.</t>
+  </si>
+  <si>
+    <t>Excellent! Now, press the Y or the B button to return to the start.</t>
+  </si>
+  <si>
+    <t>For each level, you will be presented with several sets of notes arranged in Tracks.</t>
+  </si>
+  <si>
+    <t>One of these Tracks will match the notes that will be played at the beginning of the level, like this:</t>
+  </si>
+  <si>
+    <t>Your job will be to select the correct Track.</t>
+  </si>
+  <si>
+    <t>While you are still learning which colours go with which sounds, you will be able to use the keyboard in front of you to help.</t>
+  </si>
+  <si>
+    <t>Try playing any one of the keys now.</t>
+  </si>
+  <si>
+    <t>Each white key will display its matching colour when you play it.  This way, you can figure out which colours you need to collect.</t>
+  </si>
+  <si>
+    <t>If you can’t remember which tones were played, you can push one of the green buttons beside the keyboard to have them repeated.</t>
+  </si>
+  <si>
+    <t>Try it now.</t>
+  </si>
+  <si>
+    <t>Now, see if you can find those keys on the keyboard.  Go back and forth between the hint and the keyboard if you need to.</t>
+  </si>
+  <si>
+    <t>Press A or X when you have figured out which note colours you need.</t>
+  </si>
+  <si>
+    <t>Now, determine which Track contains the notes you need to collect. You will need to place the OctaviCopter in front of that Track.</t>
+  </si>
+  <si>
+    <t>You cycle through the start positions by pressing the Y or B button.  Try it now.</t>
+  </si>
+  <si>
+    <t>Good! Keep pressing the Y or B button until you are in front of your chosen Track, then start flying!</t>
+  </si>
+  <si>
+    <t>Oops! That was not the correct Track!  Don’t worry, you can try again.  Just press X or A to restart.</t>
+  </si>
+  <si>
+    <t>German version of clip 26</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 26</t>
+  </si>
+  <si>
+    <t>French version of clip 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent!  You have finished the tutorial! </t>
+  </si>
+  <si>
+    <t>If you got the Track right on the first try, you would have been awarded full points for the level.  You get half points for getting it in two tries.</t>
+  </si>
+  <si>
+    <t>You have as many chances as you need to get the correct track, but you will not receive any points after the second try.</t>
+  </si>
+  <si>
+    <t>Good luck!  Press X or A to start the first level.</t>
+  </si>
+  <si>
+    <t>TutorialClip00</t>
+  </si>
+  <si>
+    <t>TutorialInstructions</t>
+  </si>
+  <si>
+    <t>Follow directions to learn how to play</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -560,8 +971,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1690,7 @@
         <v>139</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ref="E25:E42" si="0">_xlfn.CONCAT("(F) ", B25)</f>
+        <f t="shared" ref="D25:E44" si="0">_xlfn.CONCAT("(F) ", B25)</f>
         <v>(F) Testing</v>
       </c>
     </row>
@@ -1586,7 +2000,488 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>(F) Tutorial Level</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("(G)",A44)</f>
+        <v>(G)TutorialInstructions</v>
+      </c>
+      <c r="D44" t="str">
+        <f>_xlfn.CONCAT("(S) ", A44)</f>
+        <v>(S) TutorialInstructions</v>
+      </c>
+      <c r="E44" t="str">
+        <f>_xlfn.CONCAT("(F) ", A44)</f>
+        <v>(F) TutorialInstructions</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C61" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>264</v>
+      </c>
+      <c r="B68" t="s">
+        <v>292</v>
+      </c>
+      <c r="C68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>265</v>
+      </c>
+      <c r="B69" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" t="s">
+        <v>193</v>
+      </c>
+      <c r="E69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" t="s">
+        <v>294</v>
+      </c>
+      <c r="C70" t="s">
+        <v>288</v>
+      </c>
+      <c r="D70" t="s">
+        <v>289</v>
+      </c>
+      <c r="E70" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB9EAB3-B26A-47EC-9344-41D75F5FF327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2520CE-DCFC-40C8-B983-8BBB7FF6F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="293">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -62,9 +62,6 @@
     <t>TrackSelect</t>
   </si>
   <si>
-    <t>Pull trigger to select current track</t>
-  </si>
-  <si>
     <t>FlyPrompt</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>es</t>
   </si>
   <si>
-    <t>Start flying recon, or hit Y or B to select track to fly</t>
-  </si>
-  <si>
     <t>fr</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>(F) Pull trigger to select current track</t>
   </si>
   <si>
-    <t>(F) Start flying recon, or hit Y or B to select track to fly</t>
-  </si>
-  <si>
     <t>(F) Start flying track!</t>
   </si>
   <si>
@@ -266,9 +257,6 @@
     <t>(F) Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
   </si>
   <si>
-    <t>Recon</t>
-  </si>
-  <si>
     <t>Steer with your head</t>
   </si>
   <si>
@@ -338,12 +326,6 @@
     <t>Fantastish!! Gewonnen!! Gesamtwertung deiner Sitzung: {0} Punkte</t>
   </si>
   <si>
-    <t>Wähle Deinen Track mit dem Trigger</t>
-  </si>
-  <si>
-    <t>Drücke Y oder B zum Wählen deines Track. Schau' Dich gerne um!</t>
-  </si>
-  <si>
     <t>Flieg' los!</t>
   </si>
   <si>
@@ -416,12 +398,6 @@
     <t>Fantastico!! Tu Has ganado! Tu sesión total fue de {0} puntos</t>
   </si>
   <si>
-    <t>Aprieta el botón para seleccionar la pista actual</t>
-  </si>
-  <si>
-    <t>Comienza a volar recon, o pulsa Y o B para seleccionar la pista de vuelo No dudes en echar un vistazo.</t>
-  </si>
-  <si>
     <t>Te has impactado {0}</t>
   </si>
   <si>
@@ -930,13 +906,22 @@
   </si>
   <si>
     <t>Follow directions to learn how to play</t>
+  </si>
+  <si>
+    <t>Drücke Y oder B zum Wählen deines Track.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pulsa Y o B para seleccionar la pista de vuelo No dudes en echar un vistazo.</t>
+  </si>
+  <si>
+    <t>Press Y or B to select track, then start flying</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,6 +931,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -971,11 +963,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="D42" zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,16 +1266,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1293,13 +1286,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,16 +1300,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1327,13 +1320,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1344,234 +1337,234 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
+      <c r="B6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1579,67 +1572,67 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,837 +1640,820 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
+        <v>131</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ref="E24:E42" si="0">_xlfn.CONCAT("(F) ", B24)</f>
+        <v>(F) Testing</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ref="D25:E44" si="0">_xlfn.CONCAT("(F) ", B25)</f>
-        <v>(F) Testing</v>
+        <f t="shared" si="0"/>
+        <v>(F) Wing it!</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Wing it!</v>
+        <v>(F) Basic 5th</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Basic 5th</v>
+        <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
+        <v>(F) C Chord</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>(F) C Chord</v>
+        <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
+        <v>(F) Level 1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Level 1</v>
+        <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
+        <v>(F) Level 2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Level 2</v>
+        <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
+        <v>(F) Level 3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Level 3</v>
+        <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
+        <v>(F) Level 4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Level 4</v>
+        <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
+        <v>(F) Level 5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Level 5</v>
+        <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
+        <v>(F) Level 6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Level 6</v>
+        <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>(F) Listen to the tones and choose the path that matches</v>
+        <v>(F) Tutorial Level</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" t="s">
-        <v>164</v>
-      </c>
-      <c r="D43" t="s">
-        <v>165</v>
+        <v>289</v>
+      </c>
+      <c r="C43" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("(G)",A43)</f>
+        <v>(G)TutorialInstructions</v>
+      </c>
+      <c r="D43" t="str">
+        <f>_xlfn.CONCAT("(S) ", A43)</f>
+        <v>(S) TutorialInstructions</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>(F) Tutorial Level</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <f>_xlfn.CONCAT("(F) ", A43)</f>
+        <v>(F) TutorialInstructions</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>296</v>
-      </c>
-      <c r="B44" t="s">
-        <v>297</v>
-      </c>
-      <c r="C44" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("(G)",A44)</f>
-        <v>(G)TutorialInstructions</v>
-      </c>
-      <c r="D44" t="str">
-        <f>_xlfn.CONCAT("(S) ", A44)</f>
-        <v>(S) TutorialInstructions</v>
-      </c>
-      <c r="E44" t="str">
-        <f>_xlfn.CONCAT("(F) ", A44)</f>
-        <v>(F) TutorialInstructions</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>295</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>259</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="B46" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D51" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D53" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D54" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B60" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B61" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D68" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B69" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>266</v>
-      </c>
-      <c r="B70" t="s">
-        <v>294</v>
-      </c>
-      <c r="C70" t="s">
-        <v>288</v>
-      </c>
-      <c r="D70" t="s">
-        <v>289</v>
-      </c>
-      <c r="E70" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2520CE-DCFC-40C8-B983-8BBB7FF6F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF197F33-1D22-4ED2-906B-76AFACAAF438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="310">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -128,12 +128,6 @@
     <t>InstructionHead</t>
   </si>
   <si>
-    <t>InstructionRecon</t>
-  </si>
-  <si>
-    <t>Recon flying is sightseeing - notes are not collected</t>
-  </si>
-  <si>
     <t>InstructionPoints</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>(F) Move head up/down to fly higher/lower</t>
   </si>
   <si>
-    <t>(F) Recon flying is sightseeing - notes are not collected</t>
-  </si>
-  <si>
     <t>(F) Full points on first try, half points on second try</t>
   </si>
   <si>
@@ -356,9 +347,6 @@
     <t>Lenke mit Deinem Kopf</t>
   </si>
   <si>
-    <t>Der Entdeckungsflug wird nicht gewertet.</t>
-  </si>
-  <si>
     <t>1. Versuch: volle Punktzahl - 2. Versuch: halbe Punktzahl</t>
   </si>
   <si>
@@ -470,9 +458,6 @@
     <t>Correct! You have earned {0} points - your session total is {1}! Press X or A for next level</t>
   </si>
   <si>
-    <t>Recon está volando sobre los paisajes? Las notas no se han colectado</t>
-  </si>
-  <si>
     <t>Vamo' arriba!</t>
   </si>
   <si>
@@ -515,9 +500,6 @@
     <t>TutorialClip01</t>
   </si>
   <si>
-    <t>Welcome to the OctaviCopter!  You are about to embark on a journey where virtual reality meets musical exploration!</t>
-  </si>
-  <si>
     <t>German version of clip 01</t>
   </si>
   <si>
@@ -815,18 +797,12 @@
     <t>TutorialClip25</t>
   </si>
   <si>
-    <t>We will begin with an introduction to how the OctaviCopter works, and what you will be expected to do with it.</t>
-  </si>
-  <si>
     <t>What you see in front of you are coloured spheres that represent the notes of the C Major scale.</t>
   </si>
   <si>
     <t>The pitch is indicated by both the colour of the sphere and the height at which it is placed.</t>
   </si>
   <si>
-    <t>You will use the OctaveCopter to collect notes by flying through them.  To fly, push either one of the joysticks forward.  You steer with your head by facing your target.</t>
-  </si>
-  <si>
     <t>Try flying through the red one now.</t>
   </si>
   <si>
@@ -860,9 +836,6 @@
     <t>Try it now.</t>
   </si>
   <si>
-    <t>Now, see if you can find those keys on the keyboard.  Go back and forth between the hint and the keyboard if you need to.</t>
-  </si>
-  <si>
     <t>Press A or X when you have figured out which note colours you need.</t>
   </si>
   <si>
@@ -915,6 +888,84 @@
   </si>
   <si>
     <t>Press Y or B to select track, then start flying</t>
+  </si>
+  <si>
+    <t>TutorialClip26</t>
+  </si>
+  <si>
+    <t>TutorialClip27</t>
+  </si>
+  <si>
+    <t>TutorialClip28</t>
+  </si>
+  <si>
+    <t>TutorialClip29</t>
+  </si>
+  <si>
+    <t>German version of clip 27</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 27</t>
+  </si>
+  <si>
+    <t>French version of clip 27</t>
+  </si>
+  <si>
+    <t>German version of clip 28</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 28</t>
+  </si>
+  <si>
+    <t>French version of clip 28</t>
+  </si>
+  <si>
+    <t>German version of clip 29</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 29</t>
+  </si>
+  <si>
+    <t>French version of clip 29</t>
+  </si>
+  <si>
+    <t>Welcome inside the OctaviCopter!  You are about to embark on a journey where virtual reality meets musical exploration!</t>
+  </si>
+  <si>
+    <t>Get ready for your VR pitch training!  In this tutorial, you will learn how the OctaviCopter works so you will be able to tackle the tasks ahead.</t>
+  </si>
+  <si>
+    <t>Excellent!  Notice how the Rainbow Scale-O-Meter in front of the keyboard has a yellow border now.  This will change to show you what pitch you are flying at.</t>
+  </si>
+  <si>
+    <t>Not all intervals go from low to high; sometimes you will be flying from a higher note to a lower note.</t>
+  </si>
+  <si>
+    <t>Try it now to aim at the red note below.</t>
+  </si>
+  <si>
+    <t>Now, see if you can find the keys that match those tones on the keyboard.  Go back and forth between the hint and the keyboard if you need to.</t>
+  </si>
+  <si>
+    <t>{Needs German translation - line changed}</t>
+  </si>
+  <si>
+    <t>{Needs Spanish translation - line changed}</t>
+  </si>
+  <si>
+    <t>Pull either trigger for Stealth Mode; press X or A to reset level</t>
+  </si>
+  <si>
+    <t>(F) Pull either trigger for Stealth Mode; press X or A to reset level</t>
+  </si>
+  <si>
+    <t>InstructionControls</t>
+  </si>
+  <si>
+    <t>To aim at notes that may be hidden by the body of the OctaviCopter you can use Stealth Mode; press either of the triggers to make the OctaviCopter transparent.</t>
+  </si>
+  <si>
+    <t>You will use the OctaviCopter to collect notes by flying through them.  To fly, push either one of the joysticks forward.  You steer with your head by facing your target.</t>
   </si>
 </sst>
 </file>
@@ -1249,16 +1300,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:E69"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="151.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.85546875" customWidth="1"/>
     <col min="4" max="4" width="96" customWidth="1"/>
     <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
@@ -1266,16 +1317,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1286,13 +1337,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,16 +1351,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1320,13 +1371,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,13 +1388,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1351,16 +1402,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1371,13 +1422,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,13 +1439,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,13 +1456,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,13 +1473,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,13 +1490,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,13 +1507,13 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1473,13 +1524,13 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1493,10 +1544,10 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,30 +1558,30 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,13 +1592,13 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,115 +1606,115 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>303</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ref="E24:E42" si="0">_xlfn.CONCAT("(F) ", B24)</f>
@@ -1672,16 +1723,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -1690,16 +1741,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -1708,16 +1759,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -1726,16 +1777,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -1744,16 +1795,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -1762,16 +1813,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -1780,16 +1831,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -1798,16 +1849,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -1816,16 +1867,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -1834,16 +1885,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -1852,16 +1903,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -1870,16 +1921,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -1888,16 +1939,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -1906,16 +1957,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -1924,16 +1975,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -1942,16 +1993,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -1960,16 +2011,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -1978,16 +2029,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -1996,10 +2047,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B43" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C43" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("(G)",A43)</f>
@@ -2016,444 +2067,503 @@
     </row>
     <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B48" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B49" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E53" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B55" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C57" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E60" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E61" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E63" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E64" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E65" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B67" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E67" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>284</v>
+      </c>
+      <c r="B70" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" t="s">
+        <v>288</v>
+      </c>
+      <c r="D70" t="s">
+        <v>289</v>
+      </c>
+      <c r="E70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>286</v>
       </c>
-      <c r="C69" t="s">
-        <v>280</v>
-      </c>
-      <c r="D69" t="s">
-        <v>281</v>
-      </c>
-      <c r="E69" t="s">
-        <v>282</v>
+      <c r="B72" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" t="s">
+        <v>294</v>
+      </c>
+      <c r="D72" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>287</v>
+      </c>
+      <c r="B73" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF197F33-1D22-4ED2-906B-76AFACAAF438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB7BBF-4209-44E5-83CD-2AF291913255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="313">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -500,9 +500,6 @@
     <t>TutorialClip01</t>
   </si>
   <si>
-    <t>German version of clip 01</t>
-  </si>
-  <si>
     <t>Spanish version of clip 01</t>
   </si>
   <si>
@@ -578,78 +575,6 @@
     <t>Spanish version of clip 25</t>
   </si>
   <si>
-    <t>German version of clip 02</t>
-  </si>
-  <si>
-    <t>German version of clip 03</t>
-  </si>
-  <si>
-    <t>German version of clip 04</t>
-  </si>
-  <si>
-    <t>German version of clip 05</t>
-  </si>
-  <si>
-    <t>German version of clip 06</t>
-  </si>
-  <si>
-    <t>German version of clip 07</t>
-  </si>
-  <si>
-    <t>German version of clip 08</t>
-  </si>
-  <si>
-    <t>German version of clip 09</t>
-  </si>
-  <si>
-    <t>German version of clip 10</t>
-  </si>
-  <si>
-    <t>German version of clip 11</t>
-  </si>
-  <si>
-    <t>German version of clip 12</t>
-  </si>
-  <si>
-    <t>German version of clip 13</t>
-  </si>
-  <si>
-    <t>German version of clip 14</t>
-  </si>
-  <si>
-    <t>German version of clip 15</t>
-  </si>
-  <si>
-    <t>German version of clip 16</t>
-  </si>
-  <si>
-    <t>German version of clip 17</t>
-  </si>
-  <si>
-    <t>German version of clip 18</t>
-  </si>
-  <si>
-    <t>German version of clip 19</t>
-  </si>
-  <si>
-    <t>German version of clip 20</t>
-  </si>
-  <si>
-    <t>German version of clip 21</t>
-  </si>
-  <si>
-    <t>German version of clip 22</t>
-  </si>
-  <si>
-    <t>German version of clip 23</t>
-  </si>
-  <si>
-    <t>German version of clip 24</t>
-  </si>
-  <si>
-    <t>German version of clip 25</t>
-  </si>
-  <si>
     <t>French version of clip 01</t>
   </si>
   <si>
@@ -851,9 +776,6 @@
     <t>Oops! That was not the correct Track!  Don’t worry, you can try again.  Just press X or A to restart.</t>
   </si>
   <si>
-    <t>German version of clip 26</t>
-  </si>
-  <si>
     <t>Spanish version of clip 26</t>
   </si>
   <si>
@@ -902,27 +824,18 @@
     <t>TutorialClip29</t>
   </si>
   <si>
-    <t>German version of clip 27</t>
-  </si>
-  <si>
     <t>Spanish version of clip 27</t>
   </si>
   <si>
     <t>French version of clip 27</t>
   </si>
   <si>
-    <t>German version of clip 28</t>
-  </si>
-  <si>
     <t>Spanish version of clip 28</t>
   </si>
   <si>
     <t>French version of clip 28</t>
   </si>
   <si>
-    <t>German version of clip 29</t>
-  </si>
-  <si>
     <t>Spanish version of clip 29</t>
   </si>
   <si>
@@ -966,6 +879,102 @@
   </si>
   <si>
     <t>You will use the OctaviCopter to collect notes by flying through them.  To fly, push either one of the joysticks forward.  You steer with your head by facing your target.</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 00</t>
+  </si>
+  <si>
+    <t>French version of clip 00</t>
+  </si>
+  <si>
+    <t>Willkommen im OctaviCopter! Dein Hörtrainer in Virtual Reality!</t>
+  </si>
+  <si>
+    <t>Erfahre zunächst, wie der OctaviCopter funktioniert, damit du die folgenden Aufgaben erfolgreich meistern kannst! Mache Dich bereit!</t>
+  </si>
+  <si>
+    <t>Vor dir siehst du bunte Kugeln. Jede von ihnen repräsentiert eine Note der Tonleiter C-Dur.</t>
+  </si>
+  <si>
+    <t>Jeder Ton ist jeweils seiner Farbe und seiner Höhe zugeordnet.</t>
+  </si>
+  <si>
+    <t>Fliege mit dem OctaviCopter durch die Noten hindurch, um die Töne zu treffen und zu sammeln. Um vorwärts zu fliegen, bewege den Joystick mit deinem Daumen nach vorne. Du versierst Dein Ziel an, indem Du mit deinem Kopf steuerst.</t>
+  </si>
+  <si>
+    <t>Schaffst du es, durch die rote Note? Probiere es mal!</t>
+  </si>
+  <si>
+    <t>Mega! Nun, fliege durch die gelbe Note hindurch!</t>
+  </si>
+  <si>
+    <t>Genial! Ist dir aufgefallen, dass sich der Rainbow Scale-o-Meter verändert hat? Der Rand um das Notenblatt vor dir ist nun gelb – genauso wie die gelbe Note, durch die Du gerade geflogen bist. Der Rainbow Scale-o-Meter zeigt dir die Höhe an, auf der Du Dich gerade befindest.</t>
+  </si>
+  <si>
+    <t>Vorsicht! Nicht alle Intervalle verlaufen von unten nach oben. Manchmal musst Du von hoch oben tief hinunter fliegen, um die Note rechtzeitig zu erreichen.</t>
+  </si>
+  <si>
+    <t>Für den Fall, dass der Sprung zu hoch sein sollte und die Note nicht sichtbar ist, benutze den Durchblick Trick und drücke den Trigger!</t>
+  </si>
+  <si>
+    <t>Los geht’s! Versuche durch die rote Note unter dir durchzufliegen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super! Nun drücke einen der oberen runden Knöpfe (Y oder B), um an den Start zurückzukehren. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In jedem Level werden dir mehrere Noten gezeigt, angeordnet in einer Spur. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einer dieser Spuren enthält die Noten, welche zu Beginn des Levels zu hören sind. Hörst du sie? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deine Aufgabe ist es, die richtige Spur zu finden.  </t>
+  </si>
+  <si>
+    <t>Beim Üben kannst du die Tastatur vor dir verwenden. Du lernst, welche Farbe zu welchem Ton gehört.</t>
+  </si>
+  <si>
+    <t>Schau und drücke eine der Tasten!</t>
+  </si>
+  <si>
+    <t>Jede weiße Taste erleuchtet in der Farbe der jeweiligen Note. So kannst du herausfinden, welche Farbe zu welchem Ton gehört und das hilft dir, die richtige Spur zu finden.</t>
+  </si>
+  <si>
+    <t>Möchtest du die Töne nochmal hören? Drücke einfach eine der grünen Knöpfe (links oder rechts), um die Töne erneut zu hören.</t>
+  </si>
+  <si>
+    <t>Probiere es. Hörst du die Töne?</t>
+  </si>
+  <si>
+    <t>Findest du die gehörten Töne auf der Tastatur wieder? Höre und spiele, bis du sie findest!</t>
+  </si>
+  <si>
+    <t>Sobald du sie gefunden hast, drücke einen der unteren runden Knöpfe (A oder X).</t>
+  </si>
+  <si>
+    <t>Nun ist es an der Zeit, auf Spur zu kommen! Finde die richtige Reihenfolge und platziere Dich vor der ersten Note!</t>
+  </si>
+  <si>
+    <t>Drücke einen der oberen, runden Tasten (Y oder B) um zwischen den verschiedenen Möglichkeiten zu wählen.</t>
+  </si>
+  <si>
+    <t>Super! Drücke Solange, bist du wirklich richtig stehst und fliege los!</t>
+  </si>
+  <si>
+    <t>Schade! Das war die falsche Spur! Macht aber nichts! Einfach einen der unteren, runden Knöpfe (X oder A) drücken und schon geht es wieder los!</t>
+  </si>
+  <si>
+    <t>Mega! Du hast es geschafft!</t>
+  </si>
+  <si>
+    <t>Hast du es auf Anhieb geschafft, erhältst du die volle Punktzahl für das Level. Beim zweiten Versuch bekommst du die Hälfte der Punktzahl.</t>
+  </si>
+  <si>
+    <t>Du hast unendlich viele Versuche aber Punkte bekommst du nur in den ersten beiden Runden.</t>
+  </si>
+  <si>
+    <t>Drücke einen der unteren, runden Knöpfe (X oder A), um mit dem ersten Level zu starten! Guten Flug!</t>
   </si>
 </sst>
 </file>
@@ -1014,12 +1023,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1302,14 +1314,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="151.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="66.85546875" customWidth="1"/>
     <col min="4" max="4" width="96" customWidth="1"/>
     <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
@@ -1402,13 +1414,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>42</v>
@@ -1620,19 +1632,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="E19" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2047,12 +2059,12 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C43" t="str">
+        <v>254</v>
+      </c>
+      <c r="C43" s="2" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("(G)",A43)</f>
         <v>(G)TutorialInstructions</v>
       </c>
@@ -2067,19 +2079,19 @@
     </row>
     <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2087,487 +2099,497 @@
         <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C47" t="s">
+        <v>286</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" t="s">
         <v>182</v>
-      </c>
-      <c r="D47" t="s">
-        <v>158</v>
-      </c>
-      <c r="E47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>231</v>
-      </c>
-      <c r="B48" t="s">
-        <v>309</v>
-      </c>
-      <c r="C48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E54" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>297</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E58" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E59" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E60" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E61" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E63" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E64" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E65" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="D66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E66" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B67" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E67" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E68" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="C69" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="D69" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="D70" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="E70" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C71" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D71" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="C72" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="E72" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>251</v>
+      </c>
+      <c r="C73" t="s">
+        <v>312</v>
+      </c>
+      <c r="D73" t="s">
+        <v>266</v>
+      </c>
+      <c r="E73" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB7BBF-4209-44E5-83CD-2AF291913255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E672E8-F04B-E246-95BC-ADE7C58D2FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12700" yWindow="-17580" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="314">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -803,12 +803,6 @@
     <t>Follow directions to learn how to play</t>
   </si>
   <si>
-    <t>Drücke Y oder B zum Wählen deines Track.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pulsa Y o B para seleccionar la pista de vuelo No dudes en echar un vistazo.</t>
-  </si>
-  <si>
     <t>Press Y or B to select track, then start flying</t>
   </si>
   <si>
@@ -848,9 +842,6 @@
     <t>Get ready for your VR pitch training!  In this tutorial, you will learn how the OctaviCopter works so you will be able to tackle the tasks ahead.</t>
   </si>
   <si>
-    <t>Excellent!  Notice how the Rainbow Scale-O-Meter in front of the keyboard has a yellow border now.  This will change to show you what pitch you are flying at.</t>
-  </si>
-  <si>
     <t>Not all intervals go from low to high; sometimes you will be flying from a higher note to a lower note.</t>
   </si>
   <si>
@@ -860,9 +851,6 @@
     <t>Now, see if you can find the keys that match those tones on the keyboard.  Go back and forth between the hint and the keyboard if you need to.</t>
   </si>
   <si>
-    <t>{Needs German translation - line changed}</t>
-  </si>
-  <si>
     <t>{Needs Spanish translation - line changed}</t>
   </si>
   <si>
@@ -890,45 +878,21 @@
     <t>Willkommen im OctaviCopter! Dein Hörtrainer in Virtual Reality!</t>
   </si>
   <si>
-    <t>Erfahre zunächst, wie der OctaviCopter funktioniert, damit du die folgenden Aufgaben erfolgreich meistern kannst! Mache Dich bereit!</t>
-  </si>
-  <si>
-    <t>Vor dir siehst du bunte Kugeln. Jede von ihnen repräsentiert eine Note der Tonleiter C-Dur.</t>
-  </si>
-  <si>
     <t>Jeder Ton ist jeweils seiner Farbe und seiner Höhe zugeordnet.</t>
   </si>
   <si>
-    <t>Fliege mit dem OctaviCopter durch die Noten hindurch, um die Töne zu treffen und zu sammeln. Um vorwärts zu fliegen, bewege den Joystick mit deinem Daumen nach vorne. Du versierst Dein Ziel an, indem Du mit deinem Kopf steuerst.</t>
-  </si>
-  <si>
-    <t>Schaffst du es, durch die rote Note? Probiere es mal!</t>
-  </si>
-  <si>
     <t>Mega! Nun, fliege durch die gelbe Note hindurch!</t>
   </si>
   <si>
-    <t>Genial! Ist dir aufgefallen, dass sich der Rainbow Scale-o-Meter verändert hat? Der Rand um das Notenblatt vor dir ist nun gelb – genauso wie die gelbe Note, durch die Du gerade geflogen bist. Der Rainbow Scale-o-Meter zeigt dir die Höhe an, auf der Du Dich gerade befindest.</t>
-  </si>
-  <si>
     <t>Vorsicht! Nicht alle Intervalle verlaufen von unten nach oben. Manchmal musst Du von hoch oben tief hinunter fliegen, um die Note rechtzeitig zu erreichen.</t>
   </si>
   <si>
-    <t>Für den Fall, dass der Sprung zu hoch sein sollte und die Note nicht sichtbar ist, benutze den Durchblick Trick und drücke den Trigger!</t>
-  </si>
-  <si>
-    <t>Los geht’s! Versuche durch die rote Note unter dir durchzufliegen!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Super! Nun drücke einen der oberen runden Knöpfe (Y oder B), um an den Start zurückzukehren. </t>
   </si>
   <si>
     <t xml:space="preserve">In jedem Level werden dir mehrere Noten gezeigt, angeordnet in einer Spur. </t>
   </si>
   <si>
-    <t xml:space="preserve">Einer dieser Spuren enthält die Noten, welche zu Beginn des Levels zu hören sind. Hörst du sie? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Deine Aufgabe ist es, die richtige Spur zu finden.  </t>
   </si>
   <si>
@@ -938,21 +902,12 @@
     <t>Schau und drücke eine der Tasten!</t>
   </si>
   <si>
-    <t>Jede weiße Taste erleuchtet in der Farbe der jeweiligen Note. So kannst du herausfinden, welche Farbe zu welchem Ton gehört und das hilft dir, die richtige Spur zu finden.</t>
-  </si>
-  <si>
     <t>Möchtest du die Töne nochmal hören? Drücke einfach eine der grünen Knöpfe (links oder rechts), um die Töne erneut zu hören.</t>
   </si>
   <si>
     <t>Probiere es. Hörst du die Töne?</t>
   </si>
   <si>
-    <t>Findest du die gehörten Töne auf der Tastatur wieder? Höre und spiele, bis du sie findest!</t>
-  </si>
-  <si>
-    <t>Sobald du sie gefunden hast, drücke einen der unteren runden Knöpfe (A oder X).</t>
-  </si>
-  <si>
     <t>Nun ist es an der Zeit, auf Spur zu kommen! Finde die richtige Reihenfolge und platziere Dich vor der ersten Note!</t>
   </si>
   <si>
@@ -968,13 +923,61 @@
     <t>Mega! Du hast es geschafft!</t>
   </si>
   <si>
-    <t>Hast du es auf Anhieb geschafft, erhältst du die volle Punktzahl für das Level. Beim zweiten Versuch bekommst du die Hälfte der Punktzahl.</t>
-  </si>
-  <si>
-    <t>Du hast unendlich viele Versuche aber Punkte bekommst du nur in den ersten beiden Runden.</t>
-  </si>
-  <si>
     <t>Drücke einen der unteren, runden Knöpfe (X oder A), um mit dem ersten Level zu starten! Guten Flug!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pulsa Y o B para seleccionar la pista de vuelo. No dudes en echar un vistazo</t>
+  </si>
+  <si>
+    <t>Los geht’s! Versuche durch die rote Note unter Dir durchzufliegen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einer dieser Spuren enthält die Noten, welche zu Beginn des Levels zu hören sind. Hörst Du sie? </t>
+  </si>
+  <si>
+    <t>Trigger für den Durchblick Trick; X oder A für den Neustart</t>
+  </si>
+  <si>
+    <t>Erfahre zunächst, wie der OctaviCopter funktioniert, damit Du die folgenden Aufgaben erfolgreich meistern kannst! Mache Dich bereit!</t>
+  </si>
+  <si>
+    <t>Vor Dir siehst Du bunte Kugeln. Jede von ihnen repräsentiert eine Note der Tonleiter C-Dur.</t>
+  </si>
+  <si>
+    <t>Fliege mit dem OctaviCopter durch die Noten hindurch, um die Töne zu treffen und zu sammeln. Um vorwärts zu fliegen, bewege den Joystick mit deinem Daumen nach vorne. Du versierst Dein Ziel an, indem Du mit Deinem Kopf steuerst.</t>
+  </si>
+  <si>
+    <t>Schaffst Du es, durch die rote Note? Probiere es mal!</t>
+  </si>
+  <si>
+    <t>Für den Fall, dass der Sprung zu hoch sein sollte und die Note nicht sichtbar ist, benutze den Durchblick-Trick und drücke den Trigger!</t>
+  </si>
+  <si>
+    <t>Jede weiße Taste erleuchtet in der Farbe der jeweiligen Note. So kannst Du herausfinden, welche Farbe zu welchem Ton gehört und das hilft Dir, die richtige Spur zu finden.</t>
+  </si>
+  <si>
+    <t>Findest Du die gehörten Töne auf der Tastatur wieder? Höre und spiele, bis Du sie findest!</t>
+  </si>
+  <si>
+    <t>Sobald Du sie gefunden hast, drücke einen der unteren runden Knöpfe (A oder X).</t>
+  </si>
+  <si>
+    <t>Hast Du es auf Anhieb geschafft, erhältst Du die volle Punktzahl für das Level. Beim zweiten Versuch bekommst Du die Hälfte der Punktzahl.</t>
+  </si>
+  <si>
+    <t>Du hast unendlich viele Versuche aber Punkte bekommst Du nur in den ersten beiden Runden.</t>
+  </si>
+  <si>
+    <t>Genial! Ist dir aufgefallen, dass sich der Rainbow Scale-o-Meter verändert hat? Der Rand um das Notenblatt vor Dir ist nun gelb – genauso wie die gelbe Note, durch die Du gerade geflogen bist. Der Rainbow Scale-o-Meter zeigt dir die Höhe an, auf der Du Dich gerade befindest.</t>
+  </si>
+  <si>
+    <t>Excellent!  Notice how the Rainbow Scale-O-Meter in front of the keyboard has a yellow border now. This will change to show you what pitch you are flying at.</t>
+  </si>
+  <si>
+    <t>Drücke Y oder B zum Wählen deines Tracks und flieg' los!</t>
+  </si>
+  <si>
+    <t>Folge der Anleitung und lerne zu spielen.</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1032,9 +1035,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1314,20 +1318,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="66.85546875" customWidth="1"/>
+    <col min="3" max="3" width="66.83203125" customWidth="1"/>
     <col min="4" max="4" width="96" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>35</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1409,24 +1413,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>255</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1630,24 +1634,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1715,7 +1719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1733,7 +1737,7 @@
         <v>(F) Testing</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>(F) Wing it!</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>(F) Basic 5th</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>(F) C Chord</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1841,7 +1845,7 @@
         <v>(F) Level 1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>(F) Level 2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1913,7 +1917,7 @@
         <v>(F) Level 3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1949,7 +1953,7 @@
         <v>(F) Level 4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -1985,7 +1989,7 @@
         <v>(F) Level 5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>(F) Level 6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -2057,16 +2061,15 @@
         <v>(F) Tutorial Level</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>253</v>
       </c>
       <c r="B43" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="2" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("(G)",A43)</f>
-        <v>(G)TutorialInstructions</v>
+      <c r="C43" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="D43" t="str">
         <f>_xlfn.CONCAT("(S) ", A43)</f>
@@ -2077,32 +2080,32 @@
         <v>(F) TutorialInstructions</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>252</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D44" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E44" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="D45" t="s">
         <v>154</v>
@@ -2111,7 +2114,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D46" t="s">
         <v>155</v>
@@ -2128,7 +2131,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>229</v>
       </c>
       <c r="C47" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D47" t="s">
         <v>156</v>
@@ -2145,15 +2148,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>206</v>
       </c>
       <c r="B48" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D48" t="s">
         <v>157</v>
@@ -2162,7 +2165,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>230</v>
       </c>
       <c r="C49" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D49" t="s">
         <v>158</v>
@@ -2179,7 +2182,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D50" t="s">
         <v>159</v>
@@ -2196,15 +2199,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="C51" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="D51" t="s">
         <v>160</v>
@@ -2213,15 +2216,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D52" t="s">
         <v>161</v>
@@ -2230,15 +2233,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D53" t="s">
         <v>162</v>
@@ -2247,15 +2250,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D54" t="s">
         <v>163</v>
@@ -2264,7 +2267,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>213</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D55" t="s">
         <v>164</v>
@@ -2281,7 +2284,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D56" t="s">
         <v>165</v>
@@ -2298,7 +2301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D57" t="s">
         <v>166</v>
@@ -2315,7 +2318,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>216</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D58" t="s">
         <v>167</v>
@@ -2332,7 +2335,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>217</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>236</v>
       </c>
       <c r="C59" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D59" t="s">
         <v>168</v>
@@ -2349,7 +2352,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>218</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D60" t="s">
         <v>169</v>
@@ -2366,7 +2369,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>219</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>238</v>
       </c>
       <c r="C61" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D61" t="s">
         <v>170</v>
@@ -2383,7 +2386,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>220</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>239</v>
       </c>
       <c r="C62" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D62" t="s">
         <v>171</v>
@@ -2400,7 +2403,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>221</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D63" t="s">
         <v>172</v>
@@ -2417,15 +2420,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>222</v>
       </c>
       <c r="B64" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D64" t="s">
         <v>173</v>
@@ -2434,7 +2437,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>241</v>
       </c>
       <c r="C65" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D65" t="s">
         <v>174</v>
@@ -2451,7 +2454,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>224</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D66" t="s">
         <v>175</v>
@@ -2468,7 +2471,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>225</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D67" t="s">
         <v>176</v>
@@ -2485,7 +2488,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>226</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D68" t="s">
         <v>177</v>
@@ -2502,7 +2505,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>227</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>245</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D69" t="s">
         <v>178</v>
@@ -2519,15 +2522,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s">
         <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D70" t="s">
         <v>246</v>
@@ -2536,55 +2539,55 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
         <v>249</v>
       </c>
       <c r="C71" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E71" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B72" t="s">
         <v>250</v>
       </c>
       <c r="C72" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D72" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B73" t="s">
         <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D73" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E73" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E672E8-F04B-E246-95BC-ADE7C58D2FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA64E9-72AC-8C45-A7E0-B568B4DB7395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12700" yWindow="-17580" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="2620" windowWidth="23740" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="350">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -978,13 +978,121 @@
   </si>
   <si>
     <t>Folge der Anleitung und lerne zu spielen.</t>
+  </si>
+  <si>
+    <t>TutorialClip30</t>
+  </si>
+  <si>
+    <t>TutorialClip31</t>
+  </si>
+  <si>
+    <t>TutorialClip32</t>
+  </si>
+  <si>
+    <t>TutorialClip33</t>
+  </si>
+  <si>
+    <t>TutorialClip34</t>
+  </si>
+  <si>
+    <t>TutorialClip35</t>
+  </si>
+  <si>
+    <t>TutorialClip36</t>
+  </si>
+  <si>
+    <t>X or A to start the level.</t>
+  </si>
+  <si>
+    <t>X oder A, um das Level zu starten.</t>
+  </si>
+  <si>
+    <t>Y or B to in between choose tracks.</t>
+  </si>
+  <si>
+    <t>Y oder B, um zwischen den Spuren zu wählen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push the joystick forward to fly. </t>
+  </si>
+  <si>
+    <t>Bewege den Joystick nach vorne, um zu fliegen.</t>
+  </si>
+  <si>
+    <t>Du wirst mit Deinem Kopf steuern.</t>
+  </si>
+  <si>
+    <t>Push the trigger for the stealth mode.</t>
+  </si>
+  <si>
+    <t>Drücke den Trigger, für den Durchblicktrick.</t>
+  </si>
+  <si>
+    <t>Push the menu button to open the menu.</t>
+  </si>
+  <si>
+    <t>Drücke den Menu Knopf, um das Menu zu öffnen.</t>
+  </si>
+  <si>
+    <t>Push the home button to set yourself in position again.</t>
+  </si>
+  <si>
+    <t>Drücke den Home Knopf, um Dich richtig zu positionieren.</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 30</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 31</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 32</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 33</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 34</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 35</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 36</t>
+  </si>
+  <si>
+    <t>French version of clip 30</t>
+  </si>
+  <si>
+    <t>French version of clip 31</t>
+  </si>
+  <si>
+    <t>French version of clip 32</t>
+  </si>
+  <si>
+    <t>French version of clip 33</t>
+  </si>
+  <si>
+    <t>French version of clip 34</t>
+  </si>
+  <si>
+    <t>French version of clip 35</t>
+  </si>
+  <si>
+    <t>French version of clip 36</t>
+  </si>
+  <si>
+    <t>You will steer with your head.</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,6 +1109,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1026,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1036,6 +1151,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1316,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="41" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1414,13 +1535,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>312</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2068,7 +2189,7 @@
       <c r="B43" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>313</v>
       </c>
       <c r="D43" t="str">
@@ -2588,6 +2709,130 @@
       </c>
       <c r="E73" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA64E9-72AC-8C45-A7E0-B568B4DB7395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2AE74C-8CC3-804B-A34B-3340F0DE5ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4220" yWindow="2620" windowWidth="23740" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2800,11 +2800,11 @@
       <c r="A79" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>330</v>
+      <c r="B79" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>339</v>
@@ -2817,11 +2817,11 @@
       <c r="A80" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>332</v>
+      <c r="B80" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>340</v>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E672E8-F04B-E246-95BC-ADE7C58D2FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE111702-BDCC-654E-B1E7-F094E1495555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12700" yWindow="-17580" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18680" yWindow="-24420" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="349">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -875,9 +875,6 @@
     <t>French version of clip 00</t>
   </si>
   <si>
-    <t>Willkommen im OctaviCopter! Dein Hörtrainer in Virtual Reality!</t>
-  </si>
-  <si>
     <t>Jeder Ton ist jeweils seiner Farbe und seiner Höhe zugeordnet.</t>
   </si>
   <si>
@@ -887,9 +884,6 @@
     <t>Vorsicht! Nicht alle Intervalle verlaufen von unten nach oben. Manchmal musst Du von hoch oben tief hinunter fliegen, um die Note rechtzeitig zu erreichen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Super! Nun drücke einen der oberen runden Knöpfe (Y oder B), um an den Start zurückzukehren. </t>
-  </si>
-  <si>
     <t xml:space="preserve">In jedem Level werden dir mehrere Noten gezeigt, angeordnet in einer Spur. </t>
   </si>
   <si>
@@ -938,9 +932,6 @@
     <t>Trigger für den Durchblick Trick; X oder A für den Neustart</t>
   </si>
   <si>
-    <t>Erfahre zunächst, wie der OctaviCopter funktioniert, damit Du die folgenden Aufgaben erfolgreich meistern kannst! Mache Dich bereit!</t>
-  </si>
-  <si>
     <t>Vor Dir siehst Du bunte Kugeln. Jede von ihnen repräsentiert eine Note der Tonleiter C-Dur.</t>
   </si>
   <si>
@@ -978,13 +969,127 @@
   </si>
   <si>
     <t>Folge der Anleitung und lerne zu spielen.</t>
+  </si>
+  <si>
+    <t>Willkommen im OctaviCopter!</t>
+  </si>
+  <si>
+    <t>Erfahre zunächst, wie der OctaviCopter funktioniert, damit Du die folgenden Aufgaben erfolgreich meistern kannst! Mache Dich bereit für den Virtual Reality Hörtrainer!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genial! Nun drücke einen der oberen runden Knöpfe (Y oder B), um an den Start zurückzukehren. </t>
+  </si>
+  <si>
+    <t>TutorialClip30</t>
+  </si>
+  <si>
+    <t>TutorialClip31</t>
+  </si>
+  <si>
+    <t>TutorialClip32</t>
+  </si>
+  <si>
+    <t>TutorialClip33</t>
+  </si>
+  <si>
+    <t>TutorialClip34</t>
+  </si>
+  <si>
+    <t>TutorialClip35</t>
+  </si>
+  <si>
+    <t>TutorialClip36</t>
+  </si>
+  <si>
+    <t>X or A to start the level.</t>
+  </si>
+  <si>
+    <t>X oder A, um das Level zu starten.</t>
+  </si>
+  <si>
+    <t>Y or B to in between choose tracks.</t>
+  </si>
+  <si>
+    <t>Y oder B, um zwischen den Spuren zu wählen.</t>
+  </si>
+  <si>
+    <t>Bewege den Joystick nach vorne, um zu fliegen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push the joystick forward to fly. </t>
+  </si>
+  <si>
+    <t>Du wirst mit Deinem Kopf steuern.</t>
+  </si>
+  <si>
+    <t>Push the trigger for the stealth mode.</t>
+  </si>
+  <si>
+    <t>Drücke den Trigger, für den Durchblicktrick.</t>
+  </si>
+  <si>
+    <t>You will steer with your head.</t>
+  </si>
+  <si>
+    <t>Push the menu button to open the menu.</t>
+  </si>
+  <si>
+    <t>Mit dem Homebutton kannst Du Dich richtig positionieren.</t>
+  </si>
+  <si>
+    <t>With the home button to set yourself in position again.</t>
+  </si>
+  <si>
+    <t>Drücke den Menu Knopf, um das Menu zu öffnen.</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 30</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 31</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 32</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 33</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 34</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 35</t>
+  </si>
+  <si>
+    <t>Spanish version of clip 36</t>
+  </si>
+  <si>
+    <t>French version of clip 30</t>
+  </si>
+  <si>
+    <t>French version of clip 31</t>
+  </si>
+  <si>
+    <t>French version of clip 32</t>
+  </si>
+  <si>
+    <t>French version of clip 33</t>
+  </si>
+  <si>
+    <t>French version of clip 34</t>
+  </si>
+  <si>
+    <t>French version of clip 35</t>
+  </si>
+  <si>
+    <t>French version of clip 36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,6 +1106,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1026,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1036,6 +1148,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1316,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1414,17 +1530,17 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>312</v>
+      <c r="C6" t="s">
+        <v>309</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>42</v>
@@ -1642,7 +1758,7 @@
         <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
         <v>271</v>
@@ -2068,8 +2184,8 @@
       <c r="B43" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>313</v>
+      <c r="C43" t="s">
+        <v>310</v>
       </c>
       <c r="D43" t="str">
         <f>_xlfn.CONCAT("(S) ", A43)</f>
@@ -2088,7 +2204,7 @@
         <v>266</v>
       </c>
       <c r="C44" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="D44" t="s">
         <v>277</v>
@@ -2105,7 +2221,7 @@
         <v>267</v>
       </c>
       <c r="C45" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D45" t="s">
         <v>154</v>
@@ -2122,7 +2238,7 @@
         <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D46" t="s">
         <v>155</v>
@@ -2139,7 +2255,7 @@
         <v>229</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" t="s">
         <v>156</v>
@@ -2156,7 +2272,7 @@
         <v>276</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D48" t="s">
         <v>157</v>
@@ -2173,7 +2289,7 @@
         <v>230</v>
       </c>
       <c r="C49" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D49" t="s">
         <v>158</v>
@@ -2190,7 +2306,7 @@
         <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D50" t="s">
         <v>159</v>
@@ -2204,10 +2320,10 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D51" t="s">
         <v>160</v>
@@ -2224,7 +2340,7 @@
         <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D52" t="s">
         <v>161</v>
@@ -2241,7 +2357,7 @@
         <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D53" t="s">
         <v>162</v>
@@ -2258,7 +2374,7 @@
         <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D54" t="s">
         <v>163</v>
@@ -2275,7 +2391,7 @@
         <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="D55" t="s">
         <v>164</v>
@@ -2292,7 +2408,7 @@
         <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D56" t="s">
         <v>165</v>
@@ -2309,7 +2425,7 @@
         <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D57" t="s">
         <v>166</v>
@@ -2326,7 +2442,7 @@
         <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D58" t="s">
         <v>167</v>
@@ -2343,7 +2459,7 @@
         <v>236</v>
       </c>
       <c r="C59" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D59" t="s">
         <v>168</v>
@@ -2360,7 +2476,7 @@
         <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D60" t="s">
         <v>169</v>
@@ -2377,7 +2493,7 @@
         <v>238</v>
       </c>
       <c r="C61" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D61" t="s">
         <v>170</v>
@@ -2394,7 +2510,7 @@
         <v>239</v>
       </c>
       <c r="C62" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D62" t="s">
         <v>171</v>
@@ -2411,7 +2527,7 @@
         <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D63" t="s">
         <v>172</v>
@@ -2428,7 +2544,7 @@
         <v>270</v>
       </c>
       <c r="C64" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D64" t="s">
         <v>173</v>
@@ -2445,7 +2561,7 @@
         <v>241</v>
       </c>
       <c r="C65" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D65" t="s">
         <v>174</v>
@@ -2462,7 +2578,7 @@
         <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D66" t="s">
         <v>175</v>
@@ -2479,7 +2595,7 @@
         <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D67" t="s">
         <v>176</v>
@@ -2496,7 +2612,7 @@
         <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D68" t="s">
         <v>177</v>
@@ -2513,7 +2629,7 @@
         <v>245</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D69" t="s">
         <v>178</v>
@@ -2530,7 +2646,7 @@
         <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D70" t="s">
         <v>246</v>
@@ -2547,7 +2663,7 @@
         <v>249</v>
       </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D71" t="s">
         <v>260</v>
@@ -2564,7 +2680,7 @@
         <v>250</v>
       </c>
       <c r="C72" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D72" t="s">
         <v>262</v>
@@ -2581,13 +2697,132 @@
         <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D73" t="s">
         <v>264</v>
       </c>
       <c r="E73" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D74" t="s">
+        <v>335</v>
+      </c>
+      <c r="E74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" t="s">
+        <v>336</v>
+      </c>
+      <c r="E75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D76" t="s">
+        <v>337</v>
+      </c>
+      <c r="E76" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" t="s">
+        <v>338</v>
+      </c>
+      <c r="E77" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D78" t="s">
+        <v>339</v>
+      </c>
+      <c r="E78" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" t="s">
+        <v>340</v>
+      </c>
+      <c r="E79" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D80" t="s">
+        <v>341</v>
+      </c>
+      <c r="E80" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE111702-BDCC-654E-B1E7-F094E1495555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F7F201-084B-3C42-920B-7198454907F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18680" yWindow="-24420" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,21 +896,12 @@
     <t>Schau und drücke eine der Tasten!</t>
   </si>
   <si>
-    <t>Möchtest du die Töne nochmal hören? Drücke einfach eine der grünen Knöpfe (links oder rechts), um die Töne erneut zu hören.</t>
-  </si>
-  <si>
-    <t>Probiere es. Hörst du die Töne?</t>
-  </si>
-  <si>
     <t>Nun ist es an der Zeit, auf Spur zu kommen! Finde die richtige Reihenfolge und platziere Dich vor der ersten Note!</t>
   </si>
   <si>
     <t>Drücke einen der oberen, runden Tasten (Y oder B) um zwischen den verschiedenen Möglichkeiten zu wählen.</t>
   </si>
   <si>
-    <t>Super! Drücke Solange, bist du wirklich richtig stehst und fliege los!</t>
-  </si>
-  <si>
     <t>Schade! Das war die falsche Spur! Macht aber nichts! Einfach einen der unteren, runden Knöpfe (X oder A) drücken und schon geht es wieder los!</t>
   </si>
   <si>
@@ -1083,6 +1074,15 @@
   </si>
   <si>
     <t>French version of clip 36</t>
+  </si>
+  <si>
+    <t>Super! Drücke Solange, bis du wirklich richtig stehst und fliege los!</t>
+  </si>
+  <si>
+    <t>Möchtest du die Töne nochmal hören? Drücke einfach einen der grünen Knöpfe (links oder rechts), um die Töne erneut zu hören.</t>
+  </si>
+  <si>
+    <t>Probiere es. Hörst Du die Töne?</t>
   </si>
 </sst>
 </file>
@@ -1434,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73:E80"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1537,10 +1537,10 @@
         <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>42</v>
@@ -1758,7 +1758,7 @@
         <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D19" t="s">
         <v>271</v>
@@ -2185,7 +2185,7 @@
         <v>254</v>
       </c>
       <c r="C43" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D43" t="str">
         <f>_xlfn.CONCAT("(S) ", A43)</f>
@@ -2204,7 +2204,7 @@
         <v>266</v>
       </c>
       <c r="C44" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D44" t="s">
         <v>277</v>
@@ -2221,7 +2221,7 @@
         <v>267</v>
       </c>
       <c r="C45" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D45" t="s">
         <v>154</v>
@@ -2238,7 +2238,7 @@
         <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
         <v>155</v>
@@ -2272,7 +2272,7 @@
         <v>276</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D48" t="s">
         <v>157</v>
@@ -2289,7 +2289,7 @@
         <v>230</v>
       </c>
       <c r="C49" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D49" t="s">
         <v>158</v>
@@ -2320,10 +2320,10 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C51" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D51" t="s">
         <v>160</v>
@@ -2357,7 +2357,7 @@
         <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D53" t="s">
         <v>162</v>
@@ -2374,7 +2374,7 @@
         <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D54" t="s">
         <v>163</v>
@@ -2391,7 +2391,7 @@
         <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D55" t="s">
         <v>164</v>
@@ -2425,7 +2425,7 @@
         <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D57" t="s">
         <v>166</v>
@@ -2493,7 +2493,7 @@
         <v>238</v>
       </c>
       <c r="C61" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D61" t="s">
         <v>170</v>
@@ -2510,7 +2510,7 @@
         <v>239</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="D62" t="s">
         <v>171</v>
@@ -2527,7 +2527,7 @@
         <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="D63" t="s">
         <v>172</v>
@@ -2544,7 +2544,7 @@
         <v>270</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D64" t="s">
         <v>173</v>
@@ -2561,7 +2561,7 @@
         <v>241</v>
       </c>
       <c r="C65" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D65" t="s">
         <v>174</v>
@@ -2578,7 +2578,7 @@
         <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D66" t="s">
         <v>175</v>
@@ -2595,7 +2595,7 @@
         <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D67" t="s">
         <v>176</v>
@@ -2612,7 +2612,7 @@
         <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="D68" t="s">
         <v>177</v>
@@ -2629,7 +2629,7 @@
         <v>245</v>
       </c>
       <c r="C69" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D69" t="s">
         <v>178</v>
@@ -2646,7 +2646,7 @@
         <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D70" t="s">
         <v>246</v>
@@ -2663,7 +2663,7 @@
         <v>249</v>
       </c>
       <c r="C71" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D71" t="s">
         <v>260</v>
@@ -2680,7 +2680,7 @@
         <v>250</v>
       </c>
       <c r="C72" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D72" t="s">
         <v>262</v>
@@ -2697,7 +2697,7 @@
         <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D73" t="s">
         <v>264</v>
@@ -2708,121 +2708,121 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D74" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E74" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D75" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E75" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D76" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E76" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D77" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E77" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D78" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E78" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D79" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E79" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="D80" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E80" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/LocalizationEntry.xlsx
+++ b/Assets/Resources/LocalizationEntry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonjaunger/Documents/GitHub/OctaviCopterFestival/Assets/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\OctaviCopterFestival\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F7F201-084B-3C42-920B-7198454907F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556DDB9B-EBA1-413A-B292-952EE312B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18680" yWindow="-24420" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocalizationEntry" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="344">
   <si>
     <t>StartPrompt</t>
   </si>
@@ -986,21 +986,9 @@
     <t>TutorialClip34</t>
   </si>
   <si>
-    <t>TutorialClip35</t>
-  </si>
-  <si>
-    <t>TutorialClip36</t>
-  </si>
-  <si>
-    <t>X or A to start the level.</t>
-  </si>
-  <si>
     <t>X oder A, um das Level zu starten.</t>
   </si>
   <si>
-    <t>Y or B to in between choose tracks.</t>
-  </si>
-  <si>
     <t>Y oder B, um zwischen den Spuren zu wählen.</t>
   </si>
   <si>
@@ -1013,27 +1001,9 @@
     <t>Du wirst mit Deinem Kopf steuern.</t>
   </si>
   <si>
-    <t>Push the trigger for the stealth mode.</t>
-  </si>
-  <si>
     <t>Drücke den Trigger, für den Durchblicktrick.</t>
   </si>
   <si>
-    <t>You will steer with your head.</t>
-  </si>
-  <si>
-    <t>Push the menu button to open the menu.</t>
-  </si>
-  <si>
-    <t>Mit dem Homebutton kannst Du Dich richtig positionieren.</t>
-  </si>
-  <si>
-    <t>With the home button to set yourself in position again.</t>
-  </si>
-  <si>
-    <t>Drücke den Menu Knopf, um das Menu zu öffnen.</t>
-  </si>
-  <si>
     <t>Spanish version of clip 30</t>
   </si>
   <si>
@@ -1049,12 +1019,6 @@
     <t>Spanish version of clip 34</t>
   </si>
   <si>
-    <t>Spanish version of clip 35</t>
-  </si>
-  <si>
-    <t>Spanish version of clip 36</t>
-  </si>
-  <si>
     <t>French version of clip 30</t>
   </si>
   <si>
@@ -1070,12 +1034,6 @@
     <t>French version of clip 34</t>
   </si>
   <si>
-    <t>French version of clip 35</t>
-  </si>
-  <si>
-    <t>French version of clip 36</t>
-  </si>
-  <si>
     <t>Super! Drücke Solange, bis du wirklich richtig stehst und fliege los!</t>
   </si>
   <si>
@@ -1083,6 +1041,33 @@
   </si>
   <si>
     <t>Probiere es. Hörst Du die Töne?</t>
+  </si>
+  <si>
+    <t>Press X or A to start the level.</t>
+  </si>
+  <si>
+    <t>Press Y or B to move between tracks.</t>
+  </si>
+  <si>
+    <t>Steer with your head.</t>
+  </si>
+  <si>
+    <t>Pull the trigger for Stealth Mode.</t>
+  </si>
+  <si>
+    <t>PressMenuButton</t>
+  </si>
+  <si>
+    <t>You have completed the Controller tour! Press the menu button to return.</t>
+  </si>
+  <si>
+    <t>(G) You have completed the Controller tour! Press the menu button to return.</t>
+  </si>
+  <si>
+    <t>(S) You have completed the Controller tour! Press the menu button to return.</t>
+  </si>
+  <si>
+    <t>(F) You have completed the Controller tour! Press the menu button to return.</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1147,14 +1132,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1432,22 +1416,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="D66" zoomScale="136" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="66.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="66.85546875" customWidth="1"/>
     <col min="4" max="4" width="96" customWidth="1"/>
-    <col min="5" max="5" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +1445,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1495,7 +1479,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1512,7 +1496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1529,7 +1513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1546,7 +1530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1563,7 +1547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1580,7 +1564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +1581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1614,7 +1598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +1615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1682,7 +1666,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1699,7 +1683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -1716,7 +1700,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1733,7 +1717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1750,7 +1734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -1767,7 +1751,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1784,7 +1768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1801,7 +1785,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1818,7 +1802,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1835,7 +1819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1853,7 +1837,7 @@
         <v>(F) Testing</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1871,7 +1855,7 @@
         <v>(F) Wing it!</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1889,7 +1873,7 @@
         <v>(F) Basic 5th</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1907,7 +1891,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1925,7 +1909,7 @@
         <v>(F) C Chord</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1943,7 +1927,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1961,7 +1945,7 @@
         <v>(F) Level 1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1979,7 +1963,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -1997,7 +1981,7 @@
         <v>(F) Level 2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2015,7 +1999,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -2033,7 +2017,7 @@
         <v>(F) Level 3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2051,7 +2035,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2069,7 +2053,7 @@
         <v>(F) Level 4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2087,7 +2071,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2105,7 +2089,7 @@
         <v>(F) Level 5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2123,7 +2107,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2141,7 +2125,7 @@
         <v>(F) Level 6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2159,7 +2143,7 @@
         <v>(F) Listen to the tones and choose the path that matches</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -2177,7 +2161,7 @@
         <v>(F) Tutorial Level</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>253</v>
       </c>
@@ -2196,7 +2180,7 @@
         <v>(F) TutorialInstructions</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>252</v>
       </c>
@@ -2213,7 +2197,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -2230,7 +2214,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -2247,7 +2231,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -2264,7 +2248,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>206</v>
       </c>
@@ -2281,7 +2265,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -2298,7 +2282,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -2315,7 +2299,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -2332,7 +2316,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>210</v>
       </c>
@@ -2349,7 +2333,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -2366,7 +2350,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>212</v>
       </c>
@@ -2383,7 +2367,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>213</v>
       </c>
@@ -2400,7 +2384,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -2417,7 +2401,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -2434,7 +2418,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>216</v>
       </c>
@@ -2451,7 +2435,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>217</v>
       </c>
@@ -2468,7 +2452,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>218</v>
       </c>
@@ -2485,7 +2469,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>219</v>
       </c>
@@ -2502,7 +2486,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>220</v>
       </c>
@@ -2510,7 +2494,7 @@
         <v>239</v>
       </c>
       <c r="C62" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D62" t="s">
         <v>171</v>
@@ -2519,7 +2503,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>221</v>
       </c>
@@ -2527,7 +2511,7 @@
         <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D63" t="s">
         <v>172</v>
@@ -2536,7 +2520,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -2553,7 +2537,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -2570,7 +2554,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>224</v>
       </c>
@@ -2587,7 +2571,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>225</v>
       </c>
@@ -2604,7 +2588,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>226</v>
       </c>
@@ -2612,7 +2596,7 @@
         <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D68" t="s">
         <v>177</v>
@@ -2621,7 +2605,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>227</v>
       </c>
@@ -2638,7 +2622,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>256</v>
       </c>
@@ -2655,7 +2639,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>257</v>
       </c>
@@ -2672,7 +2656,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -2689,7 +2673,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>259</v>
       </c>
@@ -2706,123 +2690,106 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>311</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D74" t="s">
+        <v>322</v>
+      </c>
+      <c r="E74" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" t="s">
+        <v>317</v>
+      </c>
+      <c r="D75" t="s">
+        <v>323</v>
+      </c>
+      <c r="E75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" t="s">
         <v>318</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D74" t="s">
-        <v>332</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D76" t="s">
+        <v>324</v>
+      </c>
+      <c r="E76" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D77" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>315</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D78" t="s">
+        <v>326</v>
+      </c>
+      <c r="E78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D75" t="s">
-        <v>333</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="B79" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D76" t="s">
-        <v>334</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C79" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D77" t="s">
-        <v>335</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D79" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D78" t="s">
-        <v>336</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D79" t="s">
-        <v>337</v>
-      </c>
-      <c r="E79" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D80" t="s">
-        <v>338</v>
-      </c>
-      <c r="E80" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
